--- a/Proyecto/Eficiencias máximas 1-4.xlsx
+++ b/Proyecto/Eficiencias máximas 1-4.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="D1:AP119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AM94" sqref="AM94:AM98"/>
+      <selection activeCell="AM94" sqref="AM94:AN98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -973,14 +973,8 @@
       </c>
     </row>
     <row r="9" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK9" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
       <c r="AM9" s="2">
         <f t="shared" si="2"/>
         <v>46.165215885512112</v>
@@ -991,14 +985,9 @@
       </c>
     </row>
     <row r="10" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AN10" s="2"/>
     </row>
     <row r="11" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
@@ -1099,6 +1088,7 @@
         <f t="shared" si="1"/>
         <v>9.0641499965427488E-2</v>
       </c>
+      <c r="AN11" s="2"/>
     </row>
     <row r="12" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
@@ -1199,6 +1189,7 @@
         <f t="shared" si="1"/>
         <v>0.31061540334453264</v>
       </c>
+      <c r="AN12" s="2"/>
     </row>
     <row r="13" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
@@ -1299,6 +1290,7 @@
         <f t="shared" si="1"/>
         <v>1.0734344990108238</v>
       </c>
+      <c r="AN13" s="2"/>
     </row>
     <row r="14" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
@@ -1399,6 +1391,7 @@
         <f t="shared" si="1"/>
         <v>3.7216152032220799</v>
       </c>
+      <c r="AN14" s="2"/>
     </row>
     <row r="15" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
@@ -1499,28 +1492,19 @@
         <f t="shared" si="1"/>
         <v>7.5022271665818057</v>
       </c>
+      <c r="AN15" s="2"/>
     </row>
     <row r="16" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK16" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="AJ17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK17" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AN16" s="2"/>
+    </row>
+    <row r="17" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AN17" s="2"/>
+    </row>
+    <row r="18" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>1.7335373679600401</v>
       </c>
@@ -1619,8 +1603,9 @@
         <f t="shared" si="1"/>
         <v>5.0706869381540856E-2</v>
       </c>
-    </row>
-    <row r="19" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN18" s="2"/>
+    </row>
+    <row r="19" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>4.0537131006699099</v>
       </c>
@@ -1719,8 +1704,9 @@
         <f t="shared" si="1"/>
         <v>0.18124352271267188</v>
       </c>
-    </row>
-    <row r="20" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN19" s="2"/>
+    </row>
+    <row r="20" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>8.8747040372439798</v>
       </c>
@@ -1819,8 +1805,9 @@
         <f t="shared" si="1"/>
         <v>1.0443082531834644</v>
       </c>
-    </row>
-    <row r="21" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN20" s="2"/>
+    </row>
+    <row r="21" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>20.959522377494899</v>
       </c>
@@ -1919,8 +1906,9 @@
         <f t="shared" si="1"/>
         <v>3.3205822072500424</v>
       </c>
-    </row>
-    <row r="22" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN21" s="2"/>
+    </row>
+    <row r="22" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D22" s="1">
         <v>37.824348687319997</v>
       </c>
@@ -2019,28 +2007,19 @@
         <f t="shared" si="1"/>
         <v>9.1322600276730608</v>
       </c>
-    </row>
-    <row r="23" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="AJ23" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK23" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="AJ24" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK24" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN22" s="2"/>
+    </row>
+    <row r="23" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AN23" s="2"/>
+    </row>
+    <row r="24" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AN24" s="2"/>
+    </row>
+    <row r="25" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D25" s="1">
         <v>1.8753878995876201</v>
       </c>
@@ -2139,8 +2118,9 @@
         <f t="shared" si="1"/>
         <v>9.8903363365453384E-2</v>
       </c>
-    </row>
-    <row r="26" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN25" s="2"/>
+    </row>
+    <row r="26" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D26" s="1">
         <v>3.7643305575765398</v>
       </c>
@@ -2239,8 +2219,9 @@
         <f t="shared" si="1"/>
         <v>0.30418311750620536</v>
       </c>
-    </row>
-    <row r="27" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN26" s="2"/>
+    </row>
+    <row r="27" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D27" s="1">
         <v>9.9027094080209093</v>
       </c>
@@ -2339,8 +2320,9 @@
         <f t="shared" si="1"/>
         <v>1.119340253315227</v>
       </c>
-    </row>
-    <row r="28" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN27" s="2"/>
+    </row>
+    <row r="28" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D28" s="1">
         <v>18.885263506375502</v>
       </c>
@@ -2439,8 +2421,9 @@
         <f t="shared" si="1"/>
         <v>6.6406641018305645</v>
       </c>
-    </row>
-    <row r="29" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN28" s="2"/>
+    </row>
+    <row r="29" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D29" s="1">
         <v>47.416717388101802</v>
       </c>
@@ -2539,39 +2522,25 @@
         <f t="shared" si="1"/>
         <v>7.4241393281998409</v>
       </c>
-    </row>
-    <row r="30" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="AJ30" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK30" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="31" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="AJ31" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK31" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="32" spans="4:37" x14ac:dyDescent="0.25">
+      <c r="AN29" s="2"/>
+    </row>
+    <row r="30" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AN30" s="2"/>
+    </row>
+    <row r="31" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AN31" s="2"/>
+    </row>
+    <row r="32" spans="4:40" x14ac:dyDescent="0.25">
       <c r="AF32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ32" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK32" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+      <c r="AN32" s="2"/>
     </row>
     <row r="33" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D33" s="1">
@@ -2675,6 +2644,7 @@
       <c r="AM33" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="AN33" s="2"/>
     </row>
     <row r="34" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D34" s="1">
@@ -2779,9 +2749,9 @@
         <f>AVERAGE(AJ33,AJ40,AJ47,AJ54)</f>
         <v>1.8166174848613776</v>
       </c>
-      <c r="AN34" s="2" t="e">
-        <f>_xlfn.STDEV.S(D33:AG33,#REF!,#REF!,D54:AG54)</f>
-        <v>#REF!</v>
+      <c r="AN34" s="2">
+        <f t="shared" ref="AN10:AN34" si="3">_xlfn.STDEV.S(D33:AG33,D40:AG40,D47:AG47,D54:AG54)</f>
+        <v>6.4079087391012687E-2</v>
       </c>
     </row>
     <row r="35" spans="4:40" x14ac:dyDescent="0.25">
@@ -2884,7 +2854,7 @@
         <v>0.7015904707751317</v>
       </c>
       <c r="AM35" s="2">
-        <f t="shared" ref="AM35:AM37" si="3">AVERAGE(AJ34,AJ41,AJ48,AJ55)</f>
+        <f t="shared" ref="AM35:AM37" si="4">AVERAGE(AJ34,AJ41,AJ48,AJ55)</f>
         <v>4.3756918553179478</v>
       </c>
       <c r="AN35" s="2">
@@ -2992,7 +2962,7 @@
         <v>3.2462850167849049</v>
       </c>
       <c r="AM36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.6303406481108027</v>
       </c>
       <c r="AN36" s="2">
@@ -3100,7 +3070,7 @@
         <v>9.7798076794829178</v>
       </c>
       <c r="AM37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.431513456268739</v>
       </c>
       <c r="AN37" s="2">
@@ -3109,14 +3079,8 @@
       </c>
     </row>
     <row r="38" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ38" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK38" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
       <c r="AM38" s="2">
         <f>AVERAGE(AJ37,AJ44,AJ51,AJ58)</f>
         <v>57.447113217727598</v>
@@ -3127,14 +3091,8 @@
       </c>
     </row>
     <row r="39" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ39" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK39" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
     </row>
     <row r="40" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D40" s="1">
@@ -3637,24 +3595,12 @@
       </c>
     </row>
     <row r="45" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ45" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK45" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
     </row>
     <row r="46" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ46" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK46" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
     </row>
     <row r="47" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D47" s="1">
@@ -4157,24 +4103,12 @@
       </c>
     </row>
     <row r="52" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ52" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK52" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
     </row>
     <row r="53" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ53" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK53" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
     </row>
     <row r="54" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D54" s="1">
@@ -4677,47 +4611,23 @@
       </c>
     </row>
     <row r="59" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ59" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK59" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
     </row>
     <row r="60" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ60" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK60" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
     </row>
     <row r="61" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ61" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK61" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
     </row>
     <row r="62" spans="4:40" x14ac:dyDescent="0.25">
       <c r="AF62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AJ62" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK62" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ62" s="2"/>
+      <c r="AK62" s="2"/>
     </row>
     <row r="63" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D63" s="1">
@@ -5030,7 +4940,7 @@
         <v>6.8790083692925119</v>
       </c>
       <c r="AM65" s="2">
-        <f t="shared" ref="AM65:AM68" si="4">AVERAGE(AJ64,AJ71,AJ78,AJ85)</f>
+        <f t="shared" ref="AM65:AM68" si="5">AVERAGE(AJ64,AJ71,AJ78,AJ85)</f>
         <v>12.052589142255759</v>
       </c>
       <c r="AN65" s="2">
@@ -5138,7 +5048,7 @@
         <v>11.823405404889506</v>
       </c>
       <c r="AM66" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.984393436998417</v>
       </c>
       <c r="AN66" s="2">
@@ -5246,7 +5156,7 @@
         <v>30.012618203056519</v>
       </c>
       <c r="AM67" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.092811559663716</v>
       </c>
       <c r="AN67" s="2">
@@ -5255,16 +5165,10 @@
       </c>
     </row>
     <row r="68" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AJ68" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK68" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ68" s="2"/>
+      <c r="AK68" s="2"/>
       <c r="AM68" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144.45257041170015</v>
       </c>
       <c r="AN68" s="2">
@@ -5273,14 +5177,8 @@
       </c>
     </row>
     <row r="69" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AJ69" s="2" t="e">
-        <f t="shared" ref="AJ69:AJ118" si="5">AVERAGE(D69:AG69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK69" s="2" t="e">
-        <f t="shared" ref="AK69:AK118" si="6">_xlfn.STDEV.S(D69:AG69)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ69" s="2"/>
+      <c r="AK69" s="2"/>
     </row>
     <row r="70" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D70" s="1">
@@ -5374,11 +5272,11 @@
         <v>1.87747010962299</v>
       </c>
       <c r="AJ70" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AJ69:AJ118" si="6">AVERAGE(D70:AG70)</f>
         <v>2.9893244013341205</v>
       </c>
       <c r="AK70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AK69:AK118" si="7">_xlfn.STDEV.S(D70:AG70)</f>
         <v>1.1075742881402475</v>
       </c>
     </row>
@@ -5474,11 +5372,11 @@
         <v>15.1344041249646</v>
       </c>
       <c r="AJ71" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.092107680656881</v>
       </c>
       <c r="AK71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.1390630783759894</v>
       </c>
     </row>
@@ -5574,11 +5472,11 @@
         <v>37.7384282513569</v>
       </c>
       <c r="AJ72" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.87191849164331</v>
       </c>
       <c r="AK72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.7264987487393642</v>
       </c>
     </row>
@@ -5674,11 +5572,11 @@
         <v>51.832911265547402</v>
       </c>
       <c r="AJ73" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.65056021501799</v>
       </c>
       <c r="AK73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12.222108234021499</v>
       </c>
     </row>
@@ -5774,33 +5672,21 @@
         <v>239.181796528522</v>
       </c>
       <c r="AJ74" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>147.97148894803135</v>
       </c>
       <c r="AK74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.674950325095843</v>
       </c>
     </row>
     <row r="75" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AJ75" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK75" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ75" s="2"/>
+      <c r="AK75" s="2"/>
     </row>
     <row r="76" spans="4:42" x14ac:dyDescent="0.25">
-      <c r="AJ76" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK76" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ76" s="2"/>
+      <c r="AK76" s="2"/>
       <c r="AO76" s="2"/>
       <c r="AP76" s="4"/>
     </row>
@@ -5896,11 +5782,11 @@
         <v>1.8943814716784699</v>
       </c>
       <c r="AJ77" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9746611593195587</v>
       </c>
       <c r="AK77" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0213357418720868</v>
       </c>
       <c r="AO77" s="2"/>
@@ -5998,11 +5884,11 @@
         <v>15.194503047151899</v>
       </c>
       <c r="AJ78" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.061440348962808</v>
       </c>
       <c r="AK78" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.0353273319794196</v>
       </c>
       <c r="AO78" s="2"/>
@@ -6100,11 +5986,11 @@
         <v>29.225280924675701</v>
       </c>
       <c r="AJ79" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.059581837451635</v>
       </c>
       <c r="AK79" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.9381889467367523</v>
       </c>
     </row>
@@ -6200,11 +6086,11 @@
         <v>51.585024819602701</v>
       </c>
       <c r="AJ80" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.150538620215109</v>
       </c>
       <c r="AK80" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.544716771594752</v>
       </c>
     </row>
@@ -6300,33 +6186,21 @@
         <v>135.006961840521</v>
       </c>
       <c r="AJ81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143.74672376631256</v>
       </c>
       <c r="AK81" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.469903603986197</v>
       </c>
     </row>
     <row r="82" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ82" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK82" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ82" s="2"/>
+      <c r="AK82" s="2"/>
     </row>
     <row r="83" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ83" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK83" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
     </row>
     <row r="84" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
@@ -6420,11 +6294,11 @@
         <v>1.8717648702080101</v>
       </c>
       <c r="AJ84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0127802534972932</v>
       </c>
       <c r="AK84" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1337111241331668</v>
       </c>
     </row>
@@ -6520,11 +6394,11 @@
         <v>14.0589579192028</v>
       </c>
       <c r="AJ85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12.063496085572293</v>
       </c>
       <c r="AK85" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.049570083497942</v>
       </c>
     </row>
@@ -6620,11 +6494,11 @@
         <v>32.630795027874299</v>
       </c>
       <c r="AJ86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.115746628701309</v>
       </c>
       <c r="AK86" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.9401911576444988</v>
       </c>
     </row>
@@ -6720,11 +6594,11 @@
         <v>36.747193243703897</v>
       </c>
       <c r="AJ87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.527110907566239</v>
       </c>
       <c r="AK87" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.774878034530461</v>
       </c>
     </row>
@@ -6820,56 +6694,32 @@
         <v>129.65052573481401</v>
       </c>
       <c r="AJ88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>143.51382274379148</v>
       </c>
       <c r="AK88" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35.592550086673555</v>
       </c>
     </row>
     <row r="89" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ89" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK89" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ89" s="2"/>
+      <c r="AK89" s="2"/>
     </row>
     <row r="90" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ90" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK90" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ90" s="2"/>
+      <c r="AK90" s="2"/>
     </row>
     <row r="91" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ91" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK91" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ91" s="2"/>
+      <c r="AK91" s="2"/>
     </row>
     <row r="92" spans="4:40" x14ac:dyDescent="0.25">
       <c r="AF92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AJ92" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK92" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ92" s="2"/>
+      <c r="AK92" s="2"/>
     </row>
     <row r="93" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D93" s="1">
@@ -6963,11 +6813,11 @@
         <v>4.0253865571121796</v>
       </c>
       <c r="AJ93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9208515431010635</v>
       </c>
       <c r="AK93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98262761810157395</v>
       </c>
       <c r="AM93" s="1" t="s">
@@ -7066,11 +6916,11 @@
         <v>14.0059916930732</v>
       </c>
       <c r="AJ94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.803107803725172</v>
       </c>
       <c r="AK94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1945751337292569</v>
       </c>
       <c r="AM94" s="2">
@@ -7174,15 +7024,15 @@
         <v>33.645884513271099</v>
       </c>
       <c r="AJ95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.455048628443695</v>
       </c>
       <c r="AK95" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.2820484166911177</v>
       </c>
       <c r="AM95" s="2">
-        <f t="shared" ref="AM95:AM98" si="7">AVERAGE(AJ94,AJ101,AJ108,AJ115)</f>
+        <f t="shared" ref="AM95:AM98" si="8">AVERAGE(AJ94,AJ101,AJ108,AJ115)</f>
         <v>10.937666684704672</v>
       </c>
       <c r="AN95" s="2">
@@ -7282,11 +7132,11 @@
         <v>80.821155779112203</v>
       </c>
       <c r="AJ96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.561916228057356</v>
       </c>
       <c r="AK96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.105053923607247</v>
       </c>
       <c r="AM96" s="2">
@@ -7390,15 +7240,15 @@
         <v>205.24172226536501</v>
       </c>
       <c r="AJ97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>179.82494412186404</v>
       </c>
       <c r="AK97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.645839362420844</v>
       </c>
       <c r="AM97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.016029252835921</v>
       </c>
       <c r="AN97" s="2">
@@ -7407,16 +7257,10 @@
       </c>
     </row>
     <row r="98" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ98" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK98" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ98" s="2"/>
+      <c r="AK98" s="2"/>
       <c r="AM98" s="2">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(AJ97,AJ104,AJ111,AJ118)</f>
         <v>170.00332855406748</v>
       </c>
       <c r="AN98" s="2">
@@ -7425,14 +7269,8 @@
       </c>
     </row>
     <row r="99" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ99" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK99" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ99" s="2"/>
+      <c r="AK99" s="2"/>
     </row>
     <row r="100" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D100" s="1">
@@ -7526,11 +7364,11 @@
         <v>4.0130518871439396</v>
       </c>
       <c r="AJ100" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.8919553271283478</v>
       </c>
       <c r="AK100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95704096113637915</v>
       </c>
     </row>
@@ -7626,11 +7464,11 @@
         <v>13.2313758973497</v>
       </c>
       <c r="AJ101" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.139285430464545</v>
       </c>
       <c r="AK101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3288299516284705</v>
       </c>
     </row>
@@ -7726,11 +7564,11 @@
         <v>26.870219953197999</v>
       </c>
       <c r="AJ102" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.36689022258436</v>
       </c>
       <c r="AK102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.7369694078232145</v>
       </c>
     </row>
@@ -7826,11 +7664,11 @@
         <v>55.055946363329802</v>
       </c>
       <c r="AJ103" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.667200210032327</v>
       </c>
       <c r="AK103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.851284338516974</v>
       </c>
     </row>
@@ -7926,33 +7764,21 @@
         <v>237.94145741111001</v>
       </c>
       <c r="AJ104" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>167.86248535138523</v>
       </c>
       <c r="AK104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>34.90307623659988</v>
       </c>
     </row>
     <row r="105" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ105" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK105" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ105" s="2"/>
+      <c r="AK105" s="2"/>
     </row>
     <row r="106" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ106" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK106" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ106" s="2"/>
+      <c r="AK106" s="2"/>
     </row>
     <row r="107" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D107" s="1">
@@ -8046,11 +7872,11 @@
         <v>4.0781657857366902</v>
       </c>
       <c r="AJ107" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9430174304724606</v>
       </c>
       <c r="AK107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0092038782511032</v>
       </c>
     </row>
@@ -8146,11 +7972,11 @@
         <v>14.4638227325303</v>
       </c>
       <c r="AJ108" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.904136752314484</v>
       </c>
       <c r="AK108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3858722649711295</v>
       </c>
     </row>
@@ -8246,11 +8072,11 @@
         <v>31.304684555454202</v>
       </c>
       <c r="AJ109" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.216099478426219</v>
       </c>
       <c r="AK109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3095648102768571</v>
       </c>
     </row>
@@ -8346,11 +8172,11 @@
         <v>66.865923809316598</v>
       </c>
       <c r="AJ110" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.417500286627003</v>
       </c>
       <c r="AK110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.637672249236589</v>
       </c>
     </row>
@@ -8446,33 +8272,21 @@
         <v>166.199195013847</v>
       </c>
       <c r="AJ111" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>166.1629423715103</v>
       </c>
       <c r="AK111" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.849774174132939</v>
       </c>
     </row>
     <row r="112" spans="4:40" x14ac:dyDescent="0.25">
-      <c r="AJ112" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK112" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ112" s="2"/>
+      <c r="AK112" s="2"/>
     </row>
     <row r="113" spans="4:37" x14ac:dyDescent="0.25">
-      <c r="AJ113" s="2" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AK113" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AJ113" s="2"/>
+      <c r="AK113" s="2"/>
     </row>
     <row r="114" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D114" s="1">
@@ -8566,11 +8380,11 @@
         <v>4.0781657857366902</v>
       </c>
       <c r="AJ114" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9430174304724606</v>
       </c>
       <c r="AK114" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0092038782511032</v>
       </c>
     </row>
@@ -8666,11 +8480,11 @@
         <v>14.4638227325303</v>
       </c>
       <c r="AJ115" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10.904136752314484</v>
       </c>
       <c r="AK115" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3858722649711295</v>
       </c>
     </row>
@@ -8766,11 +8580,11 @@
         <v>31.304684555454202</v>
       </c>
       <c r="AJ116" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.216099478426219</v>
       </c>
       <c r="AK116" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3095648102768571</v>
       </c>
     </row>
@@ -8866,11 +8680,11 @@
         <v>66.865923809316598</v>
       </c>
       <c r="AJ117" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.417500286627003</v>
       </c>
       <c r="AK117" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.637672249236589</v>
       </c>
     </row>
@@ -8966,11 +8780,11 @@
         <v>166.199195013847</v>
       </c>
       <c r="AJ118" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>166.1629423715103</v>
       </c>
       <c r="AK118" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.849774174132939</v>
       </c>
     </row>

--- a/Proyecto/Eficiencias máximas 1-4.xlsx
+++ b/Proyecto/Eficiencias máximas 1-4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Media</t>
   </si>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>caso 26.1.30</t>
+  </si>
+  <si>
+    <t>iso phi1</t>
+  </si>
+  <si>
+    <t>isophi2</t>
+  </si>
+  <si>
+    <t>dipphi1</t>
+  </si>
+  <si>
+    <t>dipphi2</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AP119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG61" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AM94" sqref="AM94:AN98"/>
     </sheetView>
   </sheetViews>
@@ -430,6 +442,9 @@
       <c r="AF3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="AG3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="AJ3" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,11 +647,11 @@
         <v>4.4295650143867897</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="shared" ref="AJ5:AJ68" si="0">AVERAGE(D5:AG5)</f>
+        <f t="shared" ref="AJ5:AJ67" si="0">AVERAGE(D5:AG5)</f>
         <v>4.2791080964524415</v>
       </c>
       <c r="AK5" s="2">
-        <f t="shared" ref="AK5:AK68" si="1">_xlfn.STDEV.S(D5:AG5)</f>
+        <f t="shared" ref="AK5:AK67" si="1">_xlfn.STDEV.S(D5:AG5)</f>
         <v>0.24756090273956113</v>
       </c>
       <c r="AM5" s="2">
@@ -985,6 +1000,9 @@
       </c>
     </row>
     <row r="10" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AG10" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AN10" s="2"/>
@@ -1500,6 +1518,9 @@
       <c r="AN16" s="2"/>
     </row>
     <row r="17" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AG17" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AN17" s="2"/>
@@ -2015,6 +2036,9 @@
       <c r="AN23" s="2"/>
     </row>
     <row r="24" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="AG24" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AN24" s="2"/>
@@ -2750,7 +2774,7 @@
         <v>1.8166174848613776</v>
       </c>
       <c r="AN34" s="2">
-        <f t="shared" ref="AN10:AN34" si="3">_xlfn.STDEV.S(D33:AG33,D40:AG40,D47:AG47,D54:AG54)</f>
+        <f t="shared" ref="AN34" si="3">_xlfn.STDEV.S(D33:AG33,D40:AG40,D47:AG47,D54:AG54)</f>
         <v>6.4079087391012687E-2</v>
       </c>
     </row>
@@ -4631,102 +4655,102 @@
     </row>
     <row r="63" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D63" s="1">
-        <v>3.1502835124822699</v>
+        <v>1.7450261543525101</v>
       </c>
       <c r="E63" s="1">
-        <v>2.5619690965419899</v>
+        <v>1.78176731471048</v>
       </c>
       <c r="F63" s="1">
-        <v>4.2145014110422503</v>
+        <v>1.66268162705442</v>
       </c>
       <c r="G63" s="1">
-        <v>1.93168054205399</v>
+        <v>1.82337636285328</v>
       </c>
       <c r="H63" s="1">
-        <v>5.2814731799426697</v>
+        <v>1.79388506532111</v>
       </c>
       <c r="I63" s="1">
-        <v>2.1987761184491399</v>
+        <v>1.8070305072258099</v>
       </c>
       <c r="J63" s="1">
-        <v>3.1216531220692101</v>
+        <v>1.77786463468249</v>
       </c>
       <c r="K63" s="1">
-        <v>1.7685872567388601</v>
+        <v>1.76061968834425</v>
       </c>
       <c r="L63" s="1">
-        <v>2.14128077869624</v>
+        <v>1.7867405561068801</v>
       </c>
       <c r="M63" s="1">
-        <v>3.06359705863655</v>
+        <v>1.82285030746609</v>
       </c>
       <c r="N63" s="1">
-        <v>5.4585821232755496</v>
+        <v>1.81557054101952</v>
       </c>
       <c r="O63" s="1">
-        <v>1.76500642286809</v>
+        <v>1.6466063452647</v>
       </c>
       <c r="P63" s="1">
-        <v>2.0031722873030402</v>
+        <v>1.9483860253609599</v>
       </c>
       <c r="Q63" s="1">
-        <v>2.69475444327824</v>
+        <v>1.71083241131548</v>
       </c>
       <c r="R63" s="1">
-        <v>4.29189901307684</v>
+        <v>1.73871491517126</v>
       </c>
       <c r="S63" s="1">
-        <v>3.5502017283018299</v>
+        <v>1.77230595650429</v>
       </c>
       <c r="T63" s="1">
-        <v>3.4869467452756702</v>
+        <v>1.82123892851014</v>
       </c>
       <c r="U63" s="1">
-        <v>1.92945644301146</v>
+        <v>1.8027910487358301</v>
       </c>
       <c r="V63" s="1">
-        <v>2.0446719763446501</v>
+        <v>1.7655527791830701</v>
       </c>
       <c r="W63" s="1">
-        <v>3.17855140685454</v>
+        <v>1.60700673278971</v>
       </c>
       <c r="X63" s="1">
-        <v>4.3557261686400004</v>
+        <v>1.9362643498377199</v>
       </c>
       <c r="Y63" s="1">
-        <v>3.0919579176532399</v>
+        <v>2.02870061015915</v>
       </c>
       <c r="Z63" s="1">
-        <v>2.3570620092229402</v>
+        <v>1.8139689626350599</v>
       </c>
       <c r="AA63" s="1">
-        <v>2.6336919378625101</v>
+        <v>1.8050302188449401</v>
       </c>
       <c r="AB63" s="1">
-        <v>3.7002943902918299</v>
+        <v>1.8207004595443701</v>
       </c>
       <c r="AC63" s="1">
-        <v>3.34853572203698</v>
+        <v>1.8338315622116299</v>
       </c>
       <c r="AD63" s="1">
-        <v>2.5117570406265801</v>
+        <v>1.7684584047527401</v>
       </c>
       <c r="AE63" s="1">
-        <v>3.1381755597213901</v>
+        <v>1.8254776326273201</v>
       </c>
       <c r="AF63" s="1">
-        <v>2.0217846534687101</v>
+        <v>1.81131259419708</v>
       </c>
       <c r="AG63" s="1">
-        <v>1.8784099951581901</v>
+        <v>1.8380627687340401</v>
       </c>
       <c r="AJ63" s="2">
         <f t="shared" si="0"/>
-        <v>2.9624813353641821</v>
+        <v>1.7957551821838775</v>
       </c>
       <c r="AK63" s="2">
         <f t="shared" si="1"/>
-        <v>1.0058894325209986</v>
+        <v>8.2646855198050262E-2</v>
       </c>
       <c r="AM63" s="1" t="s">
         <v>0</v>
@@ -4734,434 +4758,434 @@
     </row>
     <row r="64" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D64" s="1">
-        <v>6.2117402354396196</v>
+        <v>3.44144113756442</v>
       </c>
       <c r="E64" s="1">
-        <v>12.6473101803074</v>
+        <v>4.2078914121370596</v>
       </c>
       <c r="F64" s="1">
-        <v>15.50160548515</v>
+        <v>4.2303807256837302</v>
       </c>
       <c r="G64" s="1">
-        <v>13.362695639640799</v>
+        <v>3.83826798041801</v>
       </c>
       <c r="H64" s="1">
-        <v>5.5072321187819799</v>
+        <v>4.0850726059792297</v>
       </c>
       <c r="I64" s="1">
-        <v>8.6602833622703699</v>
+        <v>4.0237964143198299</v>
       </c>
       <c r="J64" s="1">
-        <v>15.614141095441299</v>
+        <v>4.2144514269320101</v>
       </c>
       <c r="K64" s="1">
-        <v>6.5368377231810397</v>
+        <v>3.8530963276649</v>
       </c>
       <c r="L64" s="1">
-        <v>11.1002850445878</v>
+        <v>4.4950869130274</v>
       </c>
       <c r="M64" s="1">
-        <v>21.33466318883</v>
+        <v>4.5588133072735797</v>
       </c>
       <c r="N64" s="1">
-        <v>7.8970036630695697</v>
+        <v>3.96043830377381</v>
       </c>
       <c r="O64" s="1">
-        <v>18.533449697512999</v>
+        <v>4.0991073481229297</v>
       </c>
       <c r="P64" s="1">
-        <v>12.725126407769199</v>
+        <v>4.9016373470853898</v>
       </c>
       <c r="Q64" s="1">
-        <v>14.9009301291188</v>
+        <v>4.3041597022139699</v>
       </c>
       <c r="R64" s="1">
-        <v>7.0385102713894403</v>
+        <v>4.1120010321634002</v>
       </c>
       <c r="S64" s="1">
-        <v>15.3685391916824</v>
+        <v>4.4335706143814999</v>
       </c>
       <c r="T64" s="1">
-        <v>11.3588795778735</v>
+        <v>4.1459620217754702</v>
       </c>
       <c r="U64" s="1">
-        <v>6.74850980162166</v>
+        <v>3.3079795213822298</v>
       </c>
       <c r="V64" s="1">
-        <v>12.8300367053244</v>
+        <v>4.1696576240000196</v>
       </c>
       <c r="W64" s="1">
-        <v>9.4197698350854004</v>
+        <v>4.3283880276292903</v>
       </c>
       <c r="X64" s="1">
-        <v>15.2592562495939</v>
+        <v>4.1263738379720198</v>
       </c>
       <c r="Y64" s="1">
-        <v>14.0986056916385</v>
+        <v>3.4807799584966199</v>
       </c>
       <c r="Z64" s="1">
-        <v>12.110681455795101</v>
+        <v>3.7147739441944601</v>
       </c>
       <c r="AA64" s="1">
-        <v>8.4427743893493492</v>
+        <v>4.1338146515569001</v>
       </c>
       <c r="AB64" s="1">
-        <v>10.9720676259446</v>
+        <v>4.3621047409638498</v>
       </c>
       <c r="AC64" s="1">
-        <v>8.1712405555634202</v>
+        <v>4.0338467450155804</v>
       </c>
       <c r="AD64" s="1">
-        <v>7.6983825070280503</v>
+        <v>3.90554640551886</v>
       </c>
       <c r="AE64" s="1">
-        <v>15.094179326701299</v>
+        <v>4.35589305294386</v>
       </c>
       <c r="AF64" s="1">
-        <v>17.9097929418398</v>
+        <v>4.4071167532878004</v>
       </c>
       <c r="AG64" s="1">
-        <v>16.7448435174</v>
+        <v>4.8037339454017802</v>
       </c>
       <c r="AJ64" s="2">
         <f t="shared" si="0"/>
-        <v>11.993312453831054</v>
+        <v>4.1345061276293311</v>
       </c>
       <c r="AK64" s="2">
         <f t="shared" si="1"/>
-        <v>4.1559684483796682</v>
+        <v>0.35926344454707632</v>
       </c>
       <c r="AM64" s="2">
         <f>AVERAGE(AJ63,AJ70,AJ77,AJ84)</f>
-        <v>2.9848117873787885</v>
+        <v>1.8004259365977671</v>
       </c>
       <c r="AN64" s="2">
         <f>_xlfn.STDEV.S(D63:AG63,D70:AG70,D77:AG77,D84:AG84)</f>
-        <v>1.0551356019158846</v>
+        <v>8.3962241220575148E-2</v>
       </c>
     </row>
     <row r="65" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D65" s="1">
-        <v>22.850478593027699</v>
+        <v>7.5963196164235098</v>
       </c>
       <c r="E65" s="1">
-        <v>33.067017548357299</v>
+        <v>8.3426019952841592</v>
       </c>
       <c r="F65" s="1">
-        <v>21.943910675293001</v>
+        <v>5.4900502281728798</v>
       </c>
       <c r="G65" s="1">
-        <v>39.0222714009155</v>
+        <v>8.0720396957351905</v>
       </c>
       <c r="H65" s="1">
-        <v>37.498792549147403</v>
+        <v>10.489211325925799</v>
       </c>
       <c r="I65" s="1">
-        <v>33.863159479680803</v>
+        <v>8.27938790977473</v>
       </c>
       <c r="J65" s="1">
-        <v>22.4472287686412</v>
+        <v>6.6177516206412204</v>
       </c>
       <c r="K65" s="1">
-        <v>45.230113091438596</v>
+        <v>10.225509904023699</v>
       </c>
       <c r="L65" s="1">
-        <v>16.924837082235399</v>
+        <v>5.1737493521198097</v>
       </c>
       <c r="M65" s="1">
-        <v>24.3261460025671</v>
+        <v>7.4190812801945603</v>
       </c>
       <c r="N65" s="1">
-        <v>24.379583005088101</v>
+        <v>6.90395662742129</v>
       </c>
       <c r="O65" s="1">
-        <v>27.926336978523501</v>
+        <v>7.4938228914605496</v>
       </c>
       <c r="P65" s="1">
-        <v>29.629757831232499</v>
+        <v>9.0152617702314295</v>
       </c>
       <c r="Q65" s="1">
-        <v>23.723472255495299</v>
+        <v>6.9251684213425104</v>
       </c>
       <c r="R65" s="1">
-        <v>32.655433493782702</v>
+        <v>7.7228825629487998</v>
       </c>
       <c r="S65" s="1">
-        <v>15.751270824648801</v>
+        <v>9.9446672066120207</v>
       </c>
       <c r="T65" s="1">
-        <v>28.512828338440901</v>
+        <v>8.9169314244970899</v>
       </c>
       <c r="U65" s="1">
-        <v>21.5892641296054</v>
+        <v>8.4786291020014399</v>
       </c>
       <c r="V65" s="1">
-        <v>29.133959681214801</v>
+        <v>6.5300467898596102</v>
       </c>
       <c r="W65" s="1">
-        <v>25.232121089320501</v>
+        <v>6.4682168294174103</v>
       </c>
       <c r="X65" s="1">
-        <v>17.3866016996685</v>
+        <v>6.6826792984290098</v>
       </c>
       <c r="Y65" s="1">
-        <v>25.500641413041301</v>
+        <v>6.4804735541543703</v>
       </c>
       <c r="Z65" s="1">
-        <v>33.147635366882596</v>
+        <v>7.8889551939713103</v>
       </c>
       <c r="AA65" s="1">
-        <v>26.6590868978899</v>
+        <v>6.68900381806049</v>
       </c>
       <c r="AB65" s="1">
-        <v>34.5001783142107</v>
+        <v>7.18910938949272</v>
       </c>
       <c r="AC65" s="1">
-        <v>21.197903921330902</v>
+        <v>7.37313410008435</v>
       </c>
       <c r="AD65" s="1">
-        <v>29.466077050909099</v>
+        <v>7.44950939146743</v>
       </c>
       <c r="AE65" s="1">
-        <v>36.891277804141403</v>
+        <v>7.9037762568211303</v>
       </c>
       <c r="AF65" s="1">
-        <v>28.7664935825401</v>
+        <v>8.8203199050190193</v>
       </c>
       <c r="AG65" s="1">
-        <v>27.485924836651701</v>
+        <v>6.2622631417958896</v>
       </c>
       <c r="AJ65" s="2">
         <f t="shared" si="0"/>
-        <v>27.890326790197424</v>
+        <v>7.628150353446113</v>
       </c>
       <c r="AK65" s="2">
         <f t="shared" si="1"/>
-        <v>6.8790083692925119</v>
+        <v>1.2839854037293925</v>
       </c>
       <c r="AM65" s="2">
         <f t="shared" ref="AM65:AM68" si="5">AVERAGE(AJ64,AJ71,AJ78,AJ85)</f>
-        <v>12.052589142255759</v>
+        <v>4.1657106840218336</v>
       </c>
       <c r="AN65" s="2">
         <f>_xlfn.STDEV.S(D64:AG64,D71:AG71,D78:AG78,D85:AG85)</f>
-        <v>4.0435397426253452</v>
+        <v>0.3125881544442195</v>
       </c>
     </row>
     <row r="66" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D66" s="1">
-        <v>53.270359142406797</v>
+        <v>12.309897002126</v>
       </c>
       <c r="E66" s="1">
-        <v>53.079332703994503</v>
+        <v>12.3669477302853</v>
       </c>
       <c r="F66" s="1">
-        <v>41.948152558307399</v>
+        <v>14.158573883616199</v>
       </c>
       <c r="G66" s="1">
-        <v>49.505432985463699</v>
+        <v>15.3828367333839</v>
       </c>
       <c r="H66" s="1">
-        <v>54.678033118678698</v>
+        <v>12.6752792480038</v>
       </c>
       <c r="I66" s="1">
-        <v>47.291100251221003</v>
+        <v>10.0521081041133</v>
       </c>
       <c r="J66" s="1">
-        <v>51.538794905326398</v>
+        <v>14.089442330669</v>
       </c>
       <c r="K66" s="1">
-        <v>56.010606366720701</v>
+        <v>12.1842089527344</v>
       </c>
       <c r="L66" s="1">
-        <v>56.940287797259302</v>
+        <v>18.4779470543419</v>
       </c>
       <c r="M66" s="1">
-        <v>61.427485510633097</v>
+        <v>13.7178903732558</v>
       </c>
       <c r="N66" s="1">
-        <v>72.290559193594802</v>
+        <v>19.629662674355998</v>
       </c>
       <c r="O66" s="1">
-        <v>75.248675952327005</v>
+        <v>18.850667989915401</v>
       </c>
       <c r="P66" s="1">
-        <v>72.195023275703704</v>
+        <v>19.6549044374609</v>
       </c>
       <c r="Q66" s="1">
-        <v>57.872938206158103</v>
+        <v>11.815360894173701</v>
       </c>
       <c r="R66" s="1">
-        <v>46.715488914453701</v>
+        <v>12.7604454049384</v>
       </c>
       <c r="S66" s="1">
-        <v>46.828923859493599</v>
+        <v>13.2772847247876</v>
       </c>
       <c r="T66" s="1">
-        <v>54.923684749061103</v>
+        <v>14.7886160819465</v>
       </c>
       <c r="U66" s="1">
-        <v>53.9367336307401</v>
+        <v>13.5005898202027</v>
       </c>
       <c r="V66" s="1">
-        <v>54.4423351222731</v>
+        <v>14.2504841472044</v>
       </c>
       <c r="W66" s="1">
-        <v>57.3323992642664</v>
+        <v>12.5726421029419</v>
       </c>
       <c r="X66" s="1">
-        <v>74.471169307116199</v>
+        <v>18.701086891632901</v>
       </c>
       <c r="Y66" s="1">
-        <v>41.461636128707497</v>
+        <v>11.1291294860647</v>
       </c>
       <c r="Z66" s="1">
-        <v>38.144176770779097</v>
+        <v>11.0398344316297</v>
       </c>
       <c r="AA66" s="1">
-        <v>49.685401352217397</v>
+        <v>13.2112397562822</v>
       </c>
       <c r="AB66" s="1">
-        <v>74.817339401685501</v>
+        <v>15.7834790879211</v>
       </c>
       <c r="AC66" s="1">
-        <v>51.8333277384925</v>
+        <v>13.3292130149411</v>
       </c>
       <c r="AD66" s="1">
-        <v>75.418547520432895</v>
+        <v>19.323699675025299</v>
       </c>
       <c r="AE66" s="1">
-        <v>52.585362991463199</v>
+        <v>15.177658561111199</v>
       </c>
       <c r="AF66" s="1">
-        <v>49.308705140278398</v>
+        <v>13.2770160060553</v>
       </c>
       <c r="AG66" s="1">
-        <v>86.089081016410105</v>
+        <v>20.421282350982398</v>
       </c>
       <c r="AJ66" s="2">
         <f t="shared" si="0"/>
-        <v>57.043036495855532</v>
+        <v>14.596980965070099</v>
       </c>
       <c r="AK66" s="2">
         <f t="shared" si="1"/>
-        <v>11.823405404889506</v>
+        <v>2.9325242669376679</v>
       </c>
       <c r="AM66" s="2">
         <f t="shared" si="5"/>
-        <v>27.984393436998417</v>
+        <v>7.6139309437589393</v>
       </c>
       <c r="AN66" s="2">
         <f>_xlfn.STDEV.S(D65:AG65,D72:AG72,D79:AG79,D86:AG86)</f>
-        <v>6.5810550510038164</v>
+        <v>1.0723055592165045</v>
       </c>
     </row>
     <row r="67" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D67" s="1">
-        <v>183.904176527825</v>
+        <v>40.902381040990399</v>
       </c>
       <c r="E67" s="1">
-        <v>113.60902163264601</v>
+        <v>25.4942067143459</v>
       </c>
       <c r="F67" s="1">
-        <v>172.22661389050899</v>
+        <v>38.788686419743001</v>
       </c>
       <c r="G67" s="1">
-        <v>124.46529170615599</v>
+        <v>26.351622496450801</v>
       </c>
       <c r="H67" s="1">
-        <v>137.64933309024801</v>
+        <v>28.5732956985321</v>
       </c>
       <c r="I67" s="1">
-        <v>152.756851902097</v>
+        <v>31.906768764149799</v>
       </c>
       <c r="J67" s="1">
-        <v>200.87251438731599</v>
+        <v>42.110751588874898</v>
       </c>
       <c r="K67" s="1">
-        <v>138.79473042628399</v>
+        <v>29.5998004765739</v>
       </c>
       <c r="L67" s="1">
-        <v>121.814205158368</v>
+        <v>27.6611297019784</v>
       </c>
       <c r="M67" s="1">
-        <v>198.887929162803</v>
+        <v>41.144160253177098</v>
       </c>
       <c r="N67" s="1">
-        <v>195.07116918071301</v>
+        <v>39.5417315689837</v>
       </c>
       <c r="O67" s="1">
-        <v>137.916232605071</v>
+        <v>32.156263801938501</v>
       </c>
       <c r="P67" s="1">
-        <v>141.34059858493401</v>
+        <v>28.622949197507602</v>
       </c>
       <c r="Q67" s="1">
-        <v>124.702167866587</v>
+        <v>26.807401941957899</v>
       </c>
       <c r="R67" s="1">
-        <v>158.69264059664599</v>
+        <v>33.676110182969403</v>
       </c>
       <c r="S67" s="1">
-        <v>150.578574203887</v>
+        <v>30.797779096347199</v>
       </c>
       <c r="T67" s="1">
-        <v>140.564895685061</v>
+        <v>30.231849612932699</v>
       </c>
       <c r="U67" s="1">
-        <v>142.941724203186</v>
+        <v>30.279536267625701</v>
       </c>
       <c r="V67" s="1">
-        <v>119.669481367801</v>
+        <v>24.996825410507601</v>
       </c>
       <c r="W67" s="1">
-        <v>126.00678723228999</v>
+        <v>27.452806829204299</v>
       </c>
       <c r="X67" s="1">
-        <v>72.229926525044306</v>
+        <v>15.508957773897</v>
       </c>
       <c r="Y67" s="1">
-        <v>183.52272906899901</v>
+        <v>38.401490514814299</v>
       </c>
       <c r="Z67" s="1">
-        <v>156.1069572509</v>
+        <v>34.304624575125302</v>
       </c>
       <c r="AA67" s="1">
-        <v>126.347126026821</v>
+        <v>29.153712619890399</v>
       </c>
       <c r="AB67" s="1">
-        <v>135.23640876944401</v>
+        <v>31.820450225970699</v>
       </c>
       <c r="AC67" s="1">
-        <v>144.93629705917601</v>
+        <v>31.875402560767501</v>
       </c>
       <c r="AD67" s="1">
-        <v>109.351873395404</v>
+        <v>28.068852392419998</v>
       </c>
       <c r="AE67" s="1">
-        <v>103.939274953572</v>
+        <v>24.9922265499128</v>
       </c>
       <c r="AF67" s="1">
-        <v>154.30844876325301</v>
+        <v>33.259086723536498</v>
       </c>
       <c r="AG67" s="1">
-        <v>108.903404436914</v>
+        <v>23.012549846525499</v>
       </c>
       <c r="AJ67" s="2">
         <f t="shared" si="0"/>
-        <v>142.57824618866516</v>
+        <v>30.916447028255035</v>
       </c>
       <c r="AK67" s="2">
         <f t="shared" si="1"/>
-        <v>30.012618203056519</v>
+        <v>5.9745862134189442</v>
       </c>
       <c r="AM67" s="2">
         <f t="shared" si="5"/>
-        <v>57.092811559663716</v>
+        <v>14.710239015342172</v>
       </c>
       <c r="AN67" s="2">
         <f>_xlfn.STDEV.S(D66:AG66,D73:AG73,D80:AG80,D87:AG87)</f>
-        <v>13.314330525855167</v>
+        <v>3.5871806277487233</v>
       </c>
     </row>
     <row r="68" spans="4:42" x14ac:dyDescent="0.25">
@@ -5169,11 +5193,11 @@
       <c r="AK68" s="2"/>
       <c r="AM68" s="2">
         <f t="shared" si="5"/>
-        <v>144.45257041170015</v>
+        <v>30.843737751365335</v>
       </c>
       <c r="AN68" s="2">
         <f>_xlfn.STDEV.S(D67:AG67,D74:AG74,D81:AG81,D88:AG88)</f>
-        <v>33.910638935260657</v>
+        <v>7.1303399651792132</v>
       </c>
     </row>
     <row r="69" spans="4:42" x14ac:dyDescent="0.25">
@@ -5182,502 +5206,502 @@
     </row>
     <row r="70" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D70" s="1">
-        <v>3.2052618606752201</v>
+        <v>1.7754801294121101</v>
       </c>
       <c r="E70" s="1">
-        <v>2.6470316271586798</v>
+        <v>1.84092557581673</v>
       </c>
       <c r="F70" s="1">
-        <v>4.7756406764261596</v>
+        <v>1.8840591651727201</v>
       </c>
       <c r="G70" s="1">
-        <v>1.9063249100736701</v>
+        <v>1.7994423535740001</v>
       </c>
       <c r="H70" s="1">
-        <v>5.4295901855867097</v>
+        <v>1.84419392334087</v>
       </c>
       <c r="I70" s="1">
-        <v>2.1691514449707898</v>
+        <v>1.7826839226450499</v>
       </c>
       <c r="J70" s="1">
-        <v>3.1449142205874399</v>
+        <v>1.79111245011947</v>
       </c>
       <c r="K70" s="1">
-        <v>1.98010855707103</v>
+        <v>1.97118807531527</v>
       </c>
       <c r="L70" s="1">
-        <v>2.20032804907241</v>
+        <v>1.83601113928221</v>
       </c>
       <c r="M70" s="1">
-        <v>3.0747522410551502</v>
+        <v>1.82948767762686</v>
       </c>
       <c r="N70" s="1">
-        <v>6.08456744828095</v>
+        <v>2.02377854989864</v>
       </c>
       <c r="O70" s="1">
-        <v>1.7779416106486099</v>
+        <v>1.65867381538867</v>
       </c>
       <c r="P70" s="1">
-        <v>1.6950902892652899</v>
+        <v>1.64872999305323</v>
       </c>
       <c r="Q70" s="1">
-        <v>2.70684939297933</v>
+        <v>1.71851119333344</v>
       </c>
       <c r="R70" s="1">
-        <v>4.3578545832519398</v>
+        <v>1.76543454050556</v>
       </c>
       <c r="S70" s="1">
-        <v>3.6326093953301499</v>
+        <v>1.81344491431944</v>
       </c>
       <c r="T70" s="1">
-        <v>3.4296422557067898</v>
+        <v>1.7913086844298001</v>
       </c>
       <c r="U70" s="1">
-        <v>1.9591794696309699</v>
+        <v>1.8305628113610499</v>
       </c>
       <c r="V70" s="1">
-        <v>2.1596436296550698</v>
+        <v>1.8648295944267499</v>
       </c>
       <c r="W70" s="1">
-        <v>3.1911215175929999</v>
+        <v>1.61336190846661</v>
       </c>
       <c r="X70" s="1">
-        <v>4.1719840462270303</v>
+        <v>1.8545848990602001</v>
       </c>
       <c r="Y70" s="1">
-        <v>2.4026372889324001</v>
+        <v>1.5764224041405399</v>
       </c>
       <c r="Z70" s="1">
-        <v>2.3625720480885799</v>
+        <v>1.81820942786087</v>
       </c>
       <c r="AA70" s="1">
-        <v>2.6304441059661499</v>
+        <v>1.8028042809384</v>
       </c>
       <c r="AB70" s="1">
-        <v>3.6942312933102799</v>
+        <v>1.8177171608399401</v>
       </c>
       <c r="AC70" s="1">
-        <v>3.4227736715749502</v>
+        <v>1.87448810772216</v>
       </c>
       <c r="AD70" s="1">
-        <v>2.5119775598145</v>
+        <v>1.7686136661912399</v>
       </c>
       <c r="AE70" s="1">
-        <v>3.1927026806049201</v>
+        <v>1.8571960746488601</v>
       </c>
       <c r="AF70" s="1">
-        <v>1.8853358708624599</v>
+        <v>1.68906841850135</v>
       </c>
       <c r="AG70" s="1">
-        <v>1.87747010962299</v>
+        <v>1.83714307142963</v>
       </c>
       <c r="AJ70" s="2">
-        <f t="shared" ref="AJ69:AJ118" si="6">AVERAGE(D70:AG70)</f>
-        <v>2.9893244013341205</v>
+        <f t="shared" ref="AJ70:AJ118" si="6">AVERAGE(D70:AG70)</f>
+        <v>1.7993155976273891</v>
       </c>
       <c r="AK70" s="2">
-        <f t="shared" ref="AK69:AK118" si="7">_xlfn.STDEV.S(D70:AG70)</f>
-        <v>1.1075742881402475</v>
+        <f t="shared" ref="AK70:AK118" si="7">_xlfn.STDEV.S(D70:AG70)</f>
+        <v>9.4911379088388856E-2</v>
       </c>
     </row>
     <row r="71" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D71" s="1">
-        <v>6.2819342940508598</v>
+        <v>3.48033019469838</v>
       </c>
       <c r="E71" s="1">
-        <v>12.0122795612325</v>
+        <v>3.9966101317419498</v>
       </c>
       <c r="F71" s="1">
-        <v>15.1079341722164</v>
+        <v>4.1229480125957698</v>
       </c>
       <c r="G71" s="1">
-        <v>15.6135759412666</v>
+        <v>4.48480532755738</v>
       </c>
       <c r="H71" s="1">
-        <v>5.7035999021332504</v>
+        <v>4.2307313752418096</v>
       </c>
       <c r="I71" s="1">
-        <v>8.2884142186156602</v>
+        <v>3.8510161871331698</v>
       </c>
       <c r="J71" s="1">
-        <v>16.187849653515901</v>
+        <v>4.3693025222590798</v>
       </c>
       <c r="K71" s="1">
-        <v>7.38744248001563</v>
+        <v>4.3544797493813396</v>
       </c>
       <c r="L71" s="1">
-        <v>10.492583229294199</v>
+        <v>4.2489966130057004</v>
       </c>
       <c r="M71" s="1">
-        <v>20.328469522619599</v>
+        <v>4.3438087846047697</v>
       </c>
       <c r="N71" s="1">
-        <v>8.8687665220615006</v>
+        <v>4.4477885714373002</v>
       </c>
       <c r="O71" s="1">
-        <v>20.978275908828699</v>
+        <v>4.6398380405332302</v>
       </c>
       <c r="P71" s="1">
-        <v>12.212505831016699</v>
+        <v>4.7041791778399897</v>
       </c>
       <c r="Q71" s="1">
-        <v>15.7023934014408</v>
+        <v>4.5356637687145902</v>
       </c>
       <c r="R71" s="1">
-        <v>7.0662120349876698</v>
+        <v>4.1281848091441198</v>
       </c>
       <c r="S71" s="1">
-        <v>13.377266467049401</v>
+        <v>3.8591212065984699</v>
       </c>
       <c r="T71" s="1">
-        <v>11.733752141921601</v>
+        <v>4.2827895497806701</v>
       </c>
       <c r="U71" s="1">
-        <v>8.6665480576096705</v>
+        <v>4.2481620888745804</v>
       </c>
       <c r="V71" s="1">
-        <v>13.2966782753026</v>
+        <v>4.3213123405549103</v>
       </c>
       <c r="W71" s="1">
-        <v>9.2017603231983802</v>
+        <v>4.2282125692389503</v>
       </c>
       <c r="X71" s="1">
-        <v>15.594451306129599</v>
+        <v>4.2170165330865599</v>
       </c>
       <c r="Y71" s="1">
-        <v>18.759534338949202</v>
+        <v>4.6315084332395999</v>
       </c>
       <c r="Z71" s="1">
-        <v>11.915923997497201</v>
+        <v>3.6550349498064598</v>
       </c>
       <c r="AA71" s="1">
-        <v>7.5314795145276401</v>
+        <v>3.68761960574601</v>
       </c>
       <c r="AB71" s="1">
-        <v>11.490066928864399</v>
+        <v>4.5680428824440904</v>
       </c>
       <c r="AC71" s="1">
-        <v>8.6188852668128604</v>
+        <v>4.2548327934764298</v>
       </c>
       <c r="AD71" s="1">
-        <v>8.0507207074693898</v>
+        <v>4.0842947583065303</v>
       </c>
       <c r="AE71" s="1">
-        <v>11.8472351798681</v>
+        <v>3.4188867310785498</v>
       </c>
       <c r="AF71" s="1">
-        <v>15.3122871162458</v>
+        <v>3.7679406624244001</v>
       </c>
       <c r="AG71" s="1">
-        <v>15.1344041249646</v>
+        <v>4.3417336664254202</v>
       </c>
       <c r="AJ71" s="2">
         <f t="shared" si="6"/>
-        <v>12.092107680656881</v>
+        <v>4.1835064012323402</v>
       </c>
       <c r="AK71" s="2">
         <f t="shared" si="7"/>
-        <v>4.1390630783759894</v>
+        <v>0.33830469206710106</v>
       </c>
     </row>
     <row r="72" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D72" s="1">
-        <v>23.8921487994124</v>
+        <v>7.94260819809982</v>
       </c>
       <c r="E72" s="1">
-        <v>31.958884138352499</v>
+        <v>8.0630268571929395</v>
       </c>
       <c r="F72" s="1">
-        <v>31.112382100367</v>
+        <v>7.7838696564435796</v>
       </c>
       <c r="G72" s="1">
-        <v>35.914293388021399</v>
+        <v>7.4291319153089397</v>
       </c>
       <c r="H72" s="1">
-        <v>29.229513197345099</v>
+        <v>8.1761176837641596</v>
       </c>
       <c r="I72" s="1">
-        <v>33.918828647505599</v>
+        <v>8.2929987671819507</v>
       </c>
       <c r="J72" s="1">
-        <v>29.598856155992301</v>
+        <v>8.72614968708681</v>
       </c>
       <c r="K72" s="1">
-        <v>35.185798106673197</v>
+        <v>7.9547165025521096</v>
       </c>
       <c r="L72" s="1">
-        <v>27.865460780882099</v>
+        <v>8.5181859630974497</v>
       </c>
       <c r="M72" s="1">
-        <v>26.4956801368984</v>
+        <v>8.0807541190019005</v>
       </c>
       <c r="N72" s="1">
-        <v>21.454890372951699</v>
+        <v>6.07572461555326</v>
       </c>
       <c r="O72" s="1">
-        <v>27.873205254399601</v>
+        <v>7.4795653921397998</v>
       </c>
       <c r="P72" s="1">
-        <v>22.238968971619801</v>
+        <v>6.7665125014242102</v>
       </c>
       <c r="Q72" s="1">
-        <v>22.571002526938301</v>
+        <v>6.5887485716340697</v>
       </c>
       <c r="R72" s="1">
-        <v>26.5549754072353</v>
+        <v>6.2801480363479998</v>
       </c>
       <c r="S72" s="1">
-        <v>11.219036053382</v>
+        <v>7.0832113276392503</v>
       </c>
       <c r="T72" s="1">
-        <v>24.194778455361799</v>
+        <v>7.56653032650906</v>
       </c>
       <c r="U72" s="1">
-        <v>19.151341157827499</v>
+        <v>7.5211974576032903</v>
       </c>
       <c r="V72" s="1">
-        <v>35.816782346455298</v>
+        <v>8.0279257314746992</v>
       </c>
       <c r="W72" s="1">
-        <v>33.494519547401602</v>
+        <v>8.5862704234346108</v>
       </c>
       <c r="X72" s="1">
-        <v>19.142411001903099</v>
+        <v>7.3575386342965796</v>
       </c>
       <c r="Y72" s="1">
-        <v>24.501371244997799</v>
+        <v>6.2265292006547197</v>
       </c>
       <c r="Z72" s="1">
-        <v>37.155889540929003</v>
+        <v>8.8428976769000496</v>
       </c>
       <c r="AA72" s="1">
-        <v>33.3435921356823</v>
+        <v>8.3662060879168401</v>
       </c>
       <c r="AB72" s="1">
-        <v>41.949408172698099</v>
+        <v>8.7413717526725403</v>
       </c>
       <c r="AC72" s="1">
-        <v>25.189626082693898</v>
+        <v>8.7615498083182199</v>
       </c>
       <c r="AD72" s="1">
-        <v>32.717417212455103</v>
+        <v>8.2715017125505899</v>
       </c>
       <c r="AE72" s="1">
-        <v>33.654165284993603</v>
+        <v>7.2102406952357097</v>
       </c>
       <c r="AF72" s="1">
-        <v>31.0239002765666</v>
+        <v>9.5124810521506191</v>
       </c>
       <c r="AG72" s="1">
-        <v>37.7384282513569</v>
+        <v>8.5981450386797302</v>
       </c>
       <c r="AJ72" s="2">
         <f t="shared" si="6"/>
-        <v>28.87191849164331</v>
+        <v>7.8277285130955159</v>
       </c>
       <c r="AK72" s="2">
         <f t="shared" si="7"/>
-        <v>6.7264987487393642</v>
+        <v>0.85767475625667444</v>
       </c>
     </row>
     <row r="73" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D73" s="1">
-        <v>82.511688275948899</v>
+        <v>19.067083468184901</v>
       </c>
       <c r="E73" s="1">
-        <v>53.534821255478597</v>
+        <v>12.4730719564386</v>
       </c>
       <c r="F73" s="1">
-        <v>48.681387209508799</v>
+        <v>16.431212712042498</v>
       </c>
       <c r="G73" s="1">
-        <v>54.799660843150797</v>
+        <v>17.0279136037962</v>
       </c>
       <c r="H73" s="1">
-        <v>60.397545439988598</v>
+        <v>14.001157515747</v>
       </c>
       <c r="I73" s="1">
-        <v>52.744291092378901</v>
+        <v>11.211228182869901</v>
       </c>
       <c r="J73" s="1">
-        <v>51.594737327310597</v>
+        <v>14.1047356166264</v>
       </c>
       <c r="K73" s="1">
-        <v>73.731986353489503</v>
+        <v>16.039210901399102</v>
       </c>
       <c r="L73" s="1">
-        <v>43.053097571945102</v>
+        <v>13.971352942443501</v>
       </c>
       <c r="M73" s="1">
-        <v>59.201624202778902</v>
+        <v>13.220814493405101</v>
       </c>
       <c r="N73" s="1">
-        <v>70.044278483667199</v>
+        <v>19.0197112076685</v>
       </c>
       <c r="O73" s="1">
-        <v>41.219732324643999</v>
+        <v>10.3260220708378</v>
       </c>
       <c r="P73" s="1">
-        <v>61.672215130437699</v>
+        <v>16.790097708067599</v>
       </c>
       <c r="Q73" s="1">
-        <v>59.260222233317698</v>
+        <v>12.098589324450201</v>
       </c>
       <c r="R73" s="1">
-        <v>38.433536098117301</v>
+        <v>10.498210561315901</v>
       </c>
       <c r="S73" s="1">
-        <v>55.994255989553601</v>
+        <v>15.8759078461126</v>
       </c>
       <c r="T73" s="1">
-        <v>88.655380930544297</v>
+        <v>23.871129516723698</v>
       </c>
       <c r="U73" s="1">
-        <v>66.708557626425801</v>
+        <v>16.697430737601199</v>
       </c>
       <c r="V73" s="1">
-        <v>42.232309642113798</v>
+        <v>11.0544644659916</v>
       </c>
       <c r="W73" s="1">
-        <v>68.689649944973397</v>
+        <v>15.063217238717201</v>
       </c>
       <c r="X73" s="1">
-        <v>39.296264792971797</v>
+        <v>9.86801831161468</v>
       </c>
       <c r="Y73" s="1">
-        <v>55.564303632595298</v>
+        <v>14.9145665166361</v>
       </c>
       <c r="Z73" s="1">
-        <v>47.618138682893502</v>
+        <v>13.781824946979601</v>
       </c>
       <c r="AA73" s="1">
-        <v>59.577990421592602</v>
+        <v>15.841657594299001</v>
       </c>
       <c r="AB73" s="1">
-        <v>55.067528904430198</v>
+        <v>11.617055589482501</v>
       </c>
       <c r="AC73" s="1">
-        <v>47.487560423283199</v>
+        <v>12.2116760790523</v>
       </c>
       <c r="AD73" s="1">
-        <v>48.508377220476603</v>
+        <v>12.428790316829801</v>
       </c>
       <c r="AE73" s="1">
-        <v>43.445269176383903</v>
+        <v>12.539562801188101</v>
       </c>
       <c r="AF73" s="1">
-        <v>47.957483954591602</v>
+        <v>12.9131819678455</v>
       </c>
       <c r="AG73" s="1">
-        <v>51.832911265547402</v>
+        <v>12.295339937772001</v>
       </c>
       <c r="AJ73" s="2">
         <f t="shared" si="6"/>
-        <v>55.65056021501799</v>
+        <v>14.241807871071304</v>
       </c>
       <c r="AK73" s="2">
         <f t="shared" si="7"/>
-        <v>12.222108234021499</v>
+        <v>3.0693119111701943</v>
       </c>
     </row>
     <row r="74" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D74" s="1">
-        <v>153.83605525387</v>
+        <v>34.214888800443397</v>
       </c>
       <c r="E74" s="1">
-        <v>134.944131941731</v>
+        <v>30.281869742128499</v>
       </c>
       <c r="F74" s="1">
-        <v>102.482241553317</v>
+        <v>23.0809364557973</v>
       </c>
       <c r="G74" s="1">
-        <v>110.90827008885699</v>
+        <v>23.481348294397002</v>
       </c>
       <c r="H74" s="1">
-        <v>143.83866384115601</v>
+        <v>29.858079095235802</v>
       </c>
       <c r="I74" s="1">
-        <v>227.284093350944</v>
+        <v>47.473490845214698</v>
       </c>
       <c r="J74" s="1">
-        <v>144.52445090892701</v>
+        <v>30.2979890967536</v>
       </c>
       <c r="K74" s="1">
-        <v>143.25836397113201</v>
+        <v>30.551728996642701</v>
       </c>
       <c r="L74" s="1">
-        <v>108.868041409963</v>
+        <v>24.7213616008599</v>
       </c>
       <c r="M74" s="1">
-        <v>117.326783050751</v>
+        <v>24.271518056173001</v>
       </c>
       <c r="N74" s="1">
-        <v>177.636964488887</v>
+        <v>36.007746280751498</v>
       </c>
       <c r="O74" s="1">
-        <v>187.132518882971</v>
+        <v>43.6314314091901</v>
       </c>
       <c r="P74" s="1">
-        <v>130.32607939698099</v>
+        <v>26.3923938842563</v>
       </c>
       <c r="Q74" s="1">
-        <v>129.19594953472799</v>
+        <v>27.773436562511801</v>
       </c>
       <c r="R74" s="1">
-        <v>128.41747704153801</v>
+        <v>27.251428232653399</v>
       </c>
       <c r="S74" s="1">
-        <v>203.09123055129399</v>
+        <v>41.538172930599004</v>
       </c>
       <c r="T74" s="1">
-        <v>120.44163389036</v>
+        <v>25.903859887374701</v>
       </c>
       <c r="U74" s="1">
-        <v>211.82919190813499</v>
+        <v>44.872060517521398</v>
       </c>
       <c r="V74" s="1">
-        <v>78.090512598486995</v>
+        <v>16.311718638121</v>
       </c>
       <c r="W74" s="1">
-        <v>157.709065378031</v>
+        <v>34.359708727879898</v>
       </c>
       <c r="X74" s="1">
-        <v>163.70523292592301</v>
+        <v>35.1502163571189</v>
       </c>
       <c r="Y74" s="1">
-        <v>144.23614764772699</v>
+        <v>30.180910472975199</v>
       </c>
       <c r="Z74" s="1">
-        <v>136.268370121315</v>
+        <v>29.9450797119997</v>
       </c>
       <c r="AA74" s="1">
-        <v>143.168137550918</v>
+        <v>33.035042978329102</v>
       </c>
       <c r="AB74" s="1">
-        <v>131.05971185727299</v>
+        <v>30.837694343793501</v>
       </c>
       <c r="AC74" s="1">
-        <v>145.966254227657</v>
+        <v>32.101917933602401</v>
       </c>
       <c r="AD74" s="1">
-        <v>124.65175694726901</v>
+        <v>31.996084361146099</v>
       </c>
       <c r="AE74" s="1">
-        <v>167.989097037731</v>
+        <v>40.393023454874402</v>
       </c>
       <c r="AF74" s="1">
-        <v>131.776444554546</v>
+        <v>28.402619770244499</v>
       </c>
       <c r="AG74" s="1">
-        <v>239.181796528522</v>
+        <v>50.541881986642601</v>
       </c>
       <c r="AJ74" s="2">
         <f t="shared" si="6"/>
-        <v>147.97148894803135</v>
+        <v>32.161987980841047</v>
       </c>
       <c r="AK74" s="2">
         <f t="shared" si="7"/>
-        <v>36.674950325095843</v>
+        <v>7.7386416242102234</v>
       </c>
     </row>
     <row r="75" spans="4:42" x14ac:dyDescent="0.25">
@@ -5692,506 +5716,506 @@
     </row>
     <row r="77" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D77" s="1">
-        <v>3.1342855679026198</v>
+        <v>1.7425508200791999</v>
       </c>
       <c r="E77" s="1">
-        <v>2.5507454866452801</v>
+        <v>1.7700920581616699</v>
       </c>
       <c r="F77" s="1">
-        <v>4.5420046679663297</v>
+        <v>1.7858348438614999</v>
       </c>
       <c r="G77" s="1">
-        <v>1.92847573621418</v>
+        <v>1.8291956199231001</v>
       </c>
       <c r="H77" s="1">
-        <v>5.4766918724163203</v>
+        <v>1.8639344628748</v>
       </c>
       <c r="I77" s="1">
-        <v>2.2100420674630201</v>
+        <v>1.8258242543349401</v>
       </c>
       <c r="J77" s="1">
-        <v>3.09343126431664</v>
+        <v>1.7697603443157699</v>
       </c>
       <c r="K77" s="1">
-        <v>1.77310261214799</v>
+        <v>1.7589361992983501</v>
       </c>
       <c r="L77" s="1">
-        <v>2.1527526018802798</v>
+        <v>1.8001067293927899</v>
       </c>
       <c r="M77" s="1">
-        <v>3.08814807655394</v>
+        <v>1.83314287618461</v>
       </c>
       <c r="N77" s="1">
-        <v>5.45727011844789</v>
+        <v>1.8210483340983601</v>
       </c>
       <c r="O77" s="1">
-        <v>1.8442699547356201</v>
+        <v>1.7260602437935</v>
       </c>
       <c r="P77" s="1">
-        <v>2.0560302525037302</v>
+        <v>2.0075747193385798</v>
       </c>
       <c r="Q77" s="1">
-        <v>2.8103482417889998</v>
+        <v>1.7749108369164801</v>
       </c>
       <c r="R77" s="1">
-        <v>4.2802583953962197</v>
+        <v>1.72961900353487</v>
       </c>
       <c r="S77" s="1">
-        <v>3.5075166886160098</v>
+        <v>1.74692220793998</v>
       </c>
       <c r="T77" s="1">
-        <v>3.49158354407452</v>
+        <v>1.8322517076686</v>
       </c>
       <c r="U77" s="1">
-        <v>1.9276805171328999</v>
+        <v>1.7964919925404199</v>
       </c>
       <c r="V77" s="1">
-        <v>2.0091399034387298</v>
+        <v>1.7313141722638301</v>
       </c>
       <c r="W77" s="1">
-        <v>3.3351810233575701</v>
+        <v>1.67857854045995</v>
       </c>
       <c r="X77" s="1">
-        <v>4.0703054634067097</v>
+        <v>1.80308396182849</v>
       </c>
       <c r="Y77" s="1">
-        <v>2.8839083134974501</v>
+        <v>1.8989183598856301</v>
       </c>
       <c r="Z77" s="1">
-        <v>2.3493985031775102</v>
+        <v>1.8141958028151699</v>
       </c>
       <c r="AA77" s="1">
-        <v>2.6291171283202899</v>
+        <v>1.79603318356758</v>
       </c>
       <c r="AB77" s="1">
-        <v>3.7083349766774201</v>
+        <v>1.8187280676168101</v>
       </c>
       <c r="AC77" s="1">
-        <v>3.3849999852177302</v>
+        <v>1.8502004695402401</v>
       </c>
       <c r="AD77" s="1">
-        <v>2.4740921923823098</v>
+        <v>1.74913584181502</v>
       </c>
       <c r="AE77" s="1">
-        <v>3.1517447507337</v>
+        <v>1.8391136819663001</v>
       </c>
       <c r="AF77" s="1">
-        <v>2.02459340149636</v>
+        <v>1.80786636034697</v>
       </c>
       <c r="AG77" s="1">
-        <v>1.8943814716784699</v>
+        <v>1.85836105482645</v>
       </c>
       <c r="AJ77" s="2">
         <f t="shared" si="6"/>
-        <v>2.9746611593195587</v>
+        <v>1.8019928917063324</v>
       </c>
       <c r="AK77" s="2">
         <f t="shared" si="7"/>
-        <v>1.0213357418720868</v>
+        <v>6.2134662889177218E-2</v>
       </c>
       <c r="AO77" s="2"/>
       <c r="AP77" s="4"/>
     </row>
     <row r="78" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D78" s="1">
-        <v>6.3037993000607502</v>
+        <v>3.5306482571212499</v>
       </c>
       <c r="E78" s="1">
-        <v>13.687825871234701</v>
+        <v>4.5378785056199797</v>
       </c>
       <c r="F78" s="1">
-        <v>15.1812954948696</v>
+        <v>4.1247326846102403</v>
       </c>
       <c r="G78" s="1">
-        <v>14.5796264825556</v>
+        <v>4.1564853965884501</v>
       </c>
       <c r="H78" s="1">
-        <v>5.54397983716001</v>
+        <v>4.0740689280420499</v>
       </c>
       <c r="I78" s="1">
-        <v>9.2176581219992606</v>
+        <v>4.2925130550581603</v>
       </c>
       <c r="J78" s="1">
-        <v>15.7389270163145</v>
+        <v>4.2810361643225203</v>
       </c>
       <c r="K78" s="1">
-        <v>6.3465209561609104</v>
+        <v>3.7510388218408099</v>
       </c>
       <c r="L78" s="1">
-        <v>10.8629448322913</v>
+        <v>4.4390063178228196</v>
       </c>
       <c r="M78" s="1">
-        <v>20.285440015385099</v>
+        <v>4.3005380119268901</v>
       </c>
       <c r="N78" s="1">
-        <v>8.6422166742672104</v>
+        <v>4.3163051994692303</v>
       </c>
       <c r="O78" s="1">
-        <v>18.689686195696101</v>
+        <v>4.1658921649720897</v>
       </c>
       <c r="P78" s="1">
-        <v>11.679638855340199</v>
+        <v>4.4821973350480802</v>
       </c>
       <c r="Q78" s="1">
-        <v>15.451472854862301</v>
+        <v>4.3994822501408501</v>
       </c>
       <c r="R78" s="1">
-        <v>7.1415102273380198</v>
+        <v>4.1552637510108301</v>
       </c>
       <c r="S78" s="1">
-        <v>15.4331325012486</v>
+        <v>4.51490223075215</v>
       </c>
       <c r="T78" s="1">
-        <v>11.6630026822468</v>
+        <v>4.2793377064717397</v>
       </c>
       <c r="U78" s="1">
-        <v>7.5774829451481498</v>
+        <v>3.7265250952400901</v>
       </c>
       <c r="V78" s="1">
-        <v>12.484191768757899</v>
+        <v>4.02414529615102</v>
       </c>
       <c r="W78" s="1">
-        <v>9.3100223470950692</v>
+        <v>4.2629558097895703</v>
       </c>
       <c r="X78" s="1">
-        <v>15.1788050868547</v>
+        <v>4.1491823521518096</v>
       </c>
       <c r="Y78" s="1">
-        <v>15.2985432446588</v>
+        <v>3.8068366353002201</v>
       </c>
       <c r="Z78" s="1">
-        <v>11.7758783741385</v>
+        <v>3.6276781996387801</v>
       </c>
       <c r="AA78" s="1">
-        <v>8.1216995762919009</v>
+        <v>4.0193986586892496</v>
       </c>
       <c r="AB78" s="1">
-        <v>11.202541587355</v>
+        <v>4.4132946353250304</v>
       </c>
       <c r="AC78" s="1">
-        <v>8.4067377981264109</v>
+        <v>4.1605874737117796</v>
       </c>
       <c r="AD78" s="1">
-        <v>7.6257112145604102</v>
+        <v>3.8131385687150501</v>
       </c>
       <c r="AE78" s="1">
-        <v>15.396452847534301</v>
+        <v>4.4271450832362502</v>
       </c>
       <c r="AF78" s="1">
-        <v>17.821962712180198</v>
+        <v>4.4056415477788402</v>
       </c>
       <c r="AG78" s="3">
-        <v>15.194503047151899</v>
+        <v>4.4286527165984602</v>
       </c>
       <c r="AJ78" s="2">
         <f t="shared" si="6"/>
-        <v>12.061440348962808</v>
+        <v>4.1688836284381434</v>
       </c>
       <c r="AK78" s="2">
         <f t="shared" si="7"/>
-        <v>4.0353273319794196</v>
+        <v>0.27551434748271059</v>
       </c>
       <c r="AO78" s="2"/>
       <c r="AP78" s="4"/>
     </row>
     <row r="79" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D79" s="1">
-        <v>25.094916485016601</v>
+        <v>8.3032111744121408</v>
       </c>
       <c r="E79" s="1">
-        <v>32.630824314281199</v>
+        <v>8.21203858710766</v>
       </c>
       <c r="F79" s="1">
-        <v>25.538337660106301</v>
+        <v>6.4088358139825203</v>
       </c>
       <c r="G79" s="1">
-        <v>35.918356894308197</v>
+        <v>7.6709345929684298</v>
       </c>
       <c r="H79" s="1">
-        <v>32.758244290987697</v>
+        <v>9.1337701202892099</v>
       </c>
       <c r="I79" s="1">
-        <v>37.154260947055299</v>
+        <v>9.0454106417191795</v>
       </c>
       <c r="J79" s="1">
-        <v>24.407405755715001</v>
+        <v>7.1443905973375896</v>
       </c>
       <c r="K79" s="1">
-        <v>30.6921222599095</v>
+        <v>6.8466806318236504</v>
       </c>
       <c r="L79" s="1">
-        <v>17.859816775980502</v>
+        <v>5.3509015705853198</v>
       </c>
       <c r="M79" s="1">
-        <v>24.219307914178401</v>
+        <v>7.3540179568008703</v>
       </c>
       <c r="N79" s="1">
-        <v>26.4791783724372</v>
+        <v>7.4168428645511302</v>
       </c>
       <c r="O79" s="1">
-        <v>21.239589816292799</v>
+        <v>5.7602743893402204</v>
       </c>
       <c r="P79" s="1">
-        <v>29.206757023501101</v>
+        <v>8.7879867245520895</v>
       </c>
       <c r="Q79" s="1">
-        <v>23.430882782637202</v>
+        <v>6.6965939707885997</v>
       </c>
       <c r="R79" s="1">
-        <v>29.411579538917799</v>
+        <v>7.0475397936974602</v>
       </c>
       <c r="S79" s="1">
-        <v>14.709149457956499</v>
+        <v>9.1562058665303994</v>
       </c>
       <c r="T79" s="1">
-        <v>28.316502420718599</v>
+        <v>8.8251175234537005</v>
       </c>
       <c r="U79" s="1">
-        <v>19.056558723941102</v>
+        <v>7.3374426609165901</v>
       </c>
       <c r="V79" s="1">
-        <v>29.941009472980799</v>
+        <v>6.7548340231076303</v>
       </c>
       <c r="W79" s="1">
-        <v>23.543386472822899</v>
+        <v>6.1405594672012196</v>
       </c>
       <c r="X79" s="1">
-        <v>18.1696916527846</v>
+        <v>6.8864394159139604</v>
       </c>
       <c r="Y79" s="1">
-        <v>27.411120323438499</v>
+        <v>6.7925171758909597</v>
       </c>
       <c r="Z79" s="1">
-        <v>30.841561933430899</v>
+        <v>7.24727907918294</v>
       </c>
       <c r="AA79" s="1">
-        <v>26.443734634687701</v>
+        <v>6.5372948785542899</v>
       </c>
       <c r="AB79" s="1">
-        <v>34.689848429139801</v>
+        <v>7.2013687458441096</v>
       </c>
       <c r="AC79" s="1">
-        <v>18.670132218553299</v>
+        <v>6.5802415737111701</v>
       </c>
       <c r="AD79" s="1">
-        <v>29.331797175782</v>
+        <v>7.4887616587357897</v>
       </c>
       <c r="AE79" s="1">
-        <v>38.502172904819901</v>
+        <v>8.1575291287329907</v>
       </c>
       <c r="AF79" s="1">
-        <v>26.893927546492101</v>
+        <v>8.3642643209433398</v>
       </c>
       <c r="AG79" s="1">
-        <v>29.225280924675701</v>
+        <v>6.5629580336609301</v>
       </c>
       <c r="AJ79" s="2">
         <f t="shared" si="6"/>
-        <v>27.059581837451635</v>
+        <v>7.373741432744537</v>
       </c>
       <c r="AK79" s="2">
         <f t="shared" si="7"/>
-        <v>5.9381889467367523</v>
+        <v>1.0081757674458511</v>
       </c>
     </row>
     <row r="80" spans="4:42" x14ac:dyDescent="0.25">
       <c r="D80" s="1">
-        <v>53.608195831039403</v>
+        <v>12.924107840384499</v>
       </c>
       <c r="E80" s="1">
-        <v>62.002211289344899</v>
+        <v>13.771781970813599</v>
       </c>
       <c r="F80" s="1">
-        <v>64.672762437253297</v>
+        <v>22.7651123463299</v>
       </c>
       <c r="G80" s="1">
-        <v>43.869299070240103</v>
+        <v>14.252239922954001</v>
       </c>
       <c r="H80" s="1">
-        <v>52.497965380377003</v>
+        <v>12.1744681952264</v>
       </c>
       <c r="I80" s="1">
-        <v>55.0782633479593</v>
+        <v>11.8997257632917</v>
       </c>
       <c r="J80" s="1">
-        <v>60.140257676876899</v>
+        <v>16.098689244132999</v>
       </c>
       <c r="K80" s="1">
-        <v>53.853234414046803</v>
+        <v>12.286760482751999</v>
       </c>
       <c r="L80" s="1">
-        <v>54.804254672278098</v>
+        <v>17.297748913258701</v>
       </c>
       <c r="M80" s="1">
-        <v>52.864899813774898</v>
+        <v>12.269462639013099</v>
       </c>
       <c r="N80" s="1">
-        <v>42.918786754680099</v>
+        <v>11.6104678115375</v>
       </c>
       <c r="O80" s="1">
-        <v>89.819978103379796</v>
+        <v>23.0507840249049</v>
       </c>
       <c r="P80" s="1">
-        <v>48.003695658077497</v>
+        <v>13.1344061910942</v>
       </c>
       <c r="Q80" s="1">
-        <v>56.892361560076502</v>
+        <v>11.7603532132126</v>
       </c>
       <c r="R80" s="1">
-        <v>47.055945745404998</v>
+        <v>12.9716444589401</v>
       </c>
       <c r="S80" s="1">
-        <v>39.544719223512502</v>
+        <v>11.1339934309217</v>
       </c>
       <c r="T80" s="1">
-        <v>87.194593779990896</v>
+        <v>24.082777603832099</v>
       </c>
       <c r="U80" s="1">
-        <v>59.3430557559901</v>
+        <v>15.340241971061999</v>
       </c>
       <c r="V80" s="1">
-        <v>51.344296938874699</v>
+        <v>13.171610796105499</v>
       </c>
       <c r="W80" s="1">
-        <v>84.522477023613405</v>
+        <v>17.778797869446301</v>
       </c>
       <c r="X80" s="1">
-        <v>96.0573799913941</v>
+        <v>23.7747177495005</v>
       </c>
       <c r="Y80" s="1">
-        <v>36.966019828501999</v>
+        <v>9.8508645202263807</v>
       </c>
       <c r="Z80" s="1">
-        <v>38.699534859649397</v>
+        <v>11.589893311828201</v>
       </c>
       <c r="AA80" s="1">
-        <v>60.8613698803373</v>
+        <v>16.935437843250099</v>
       </c>
       <c r="AB80" s="1">
-        <v>77.024896555096007</v>
+        <v>15.714482063682</v>
       </c>
       <c r="AC80" s="1">
-        <v>55.263820276802797</v>
+        <v>14.1116586012286</v>
       </c>
       <c r="AD80" s="1">
-        <v>70.089125559168394</v>
+        <v>17.374628507105999</v>
       </c>
       <c r="AE80" s="1">
-        <v>77.528462376239304</v>
+        <v>22.178700974051399</v>
       </c>
       <c r="AF80" s="1">
-        <v>50.409269982869297</v>
+        <v>13.7131455636609</v>
       </c>
       <c r="AG80" s="1">
-        <v>51.585024819602701</v>
+        <v>12.928911138701199</v>
       </c>
       <c r="AJ80" s="2">
         <f t="shared" si="6"/>
-        <v>59.150538620215109</v>
+        <v>15.2649204987483</v>
       </c>
       <c r="AK80" s="2">
         <f t="shared" si="7"/>
-        <v>15.544716771594752</v>
+        <v>4.1096485058079777</v>
       </c>
     </row>
     <row r="81" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D81" s="1">
-        <v>138.47671731773801</v>
+        <v>26.984167074528301</v>
       </c>
       <c r="E81" s="1">
-        <v>147.290340614836</v>
+        <v>32.457305972208403</v>
       </c>
       <c r="F81" s="1">
-        <v>140.240581485691</v>
+        <v>29.409020785711999</v>
       </c>
       <c r="G81" s="1">
-        <v>179.07777474935099</v>
+        <v>34.876192744188501</v>
       </c>
       <c r="H81" s="1">
-        <v>181.17229197608501</v>
+        <v>34.882940531621898</v>
       </c>
       <c r="I81" s="1">
-        <v>117.174141774662</v>
+        <v>23.722764656725399</v>
       </c>
       <c r="J81" s="1">
-        <v>97.136459018936193</v>
+        <v>20.2597167546637</v>
       </c>
       <c r="K81" s="1">
-        <v>115.083250902434</v>
+        <v>23.244786932732001</v>
       </c>
       <c r="L81" s="1">
-        <v>94.738523621940999</v>
+        <v>20.0561491858879</v>
       </c>
       <c r="M81" s="1">
-        <v>200.83498430304201</v>
+        <v>43.096047080146</v>
       </c>
       <c r="N81" s="1">
-        <v>196.76877106212899</v>
+        <v>39.475640025272099</v>
       </c>
       <c r="O81" s="1">
-        <v>165.998024195277</v>
+        <v>33.074967019810103</v>
       </c>
       <c r="P81" s="1">
-        <v>154.15226596593399</v>
+        <v>29.150843889109499</v>
       </c>
       <c r="Q81" s="1">
-        <v>153.111319912726</v>
+        <v>30.183356998508</v>
       </c>
       <c r="R81" s="1">
-        <v>121.185274296629</v>
+        <v>24.373141350103499</v>
       </c>
       <c r="S81" s="1">
-        <v>205.56934208787499</v>
+        <v>37.232860990308403</v>
       </c>
       <c r="T81" s="1">
-        <v>125.056467184947</v>
+        <v>25.880344642093899</v>
       </c>
       <c r="U81" s="1">
-        <v>194.563624783612</v>
+        <v>39.968070611746001</v>
       </c>
       <c r="V81" s="1">
-        <v>101.78782508850701</v>
+        <v>21.4458229208274</v>
       </c>
       <c r="W81" s="1">
-        <v>164.90108940493499</v>
+        <v>35.998636341219999</v>
       </c>
       <c r="X81" s="1">
-        <v>120.008698298195</v>
+        <v>23.961393768025701</v>
       </c>
       <c r="Y81" s="1">
-        <v>77.046667606170203</v>
+        <v>15.192076002825599</v>
       </c>
       <c r="Z81" s="1">
-        <v>130.758254670524</v>
+        <v>29.202225000478698</v>
       </c>
       <c r="AA81" s="1">
-        <v>145.490303214671</v>
+        <v>33.118907095535398</v>
       </c>
       <c r="AB81" s="1">
-        <v>141.088533957641</v>
+        <v>32.782640549686498</v>
       </c>
       <c r="AC81" s="1">
-        <v>123.69258431718499</v>
+        <v>26.7082598397783</v>
       </c>
       <c r="AD81" s="1">
-        <v>196.608462951467</v>
+        <v>48.8455526789215</v>
       </c>
       <c r="AE81" s="1">
-        <v>114.387906711204</v>
+        <v>27.330823160777701</v>
       </c>
       <c r="AF81" s="1">
-        <v>133.994269674511</v>
+        <v>30.240967431397898</v>
       </c>
       <c r="AG81" s="1">
-        <v>135.006961840521</v>
+        <v>24.956404161034701</v>
       </c>
       <c r="AJ81" s="2">
         <f t="shared" si="6"/>
-        <v>143.74672376631256</v>
+        <v>29.9370675398625</v>
       </c>
       <c r="AK81" s="2">
         <f t="shared" si="7"/>
-        <v>34.469903603986197</v>
+        <v>7.416671143453974</v>
       </c>
     </row>
     <row r="82" spans="4:40" x14ac:dyDescent="0.25">
@@ -6204,502 +6228,502 @@
     </row>
     <row r="84" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
-        <v>3.2001364564501702</v>
+        <v>1.77494091317279</v>
       </c>
       <c r="E84" s="1">
-        <v>2.6712037301321598</v>
+        <v>1.8290194450005399</v>
       </c>
       <c r="F84" s="1">
-        <v>4.90469402579759</v>
+        <v>1.9227942224778301</v>
       </c>
       <c r="G84" s="1">
-        <v>1.9193144177724599</v>
+        <v>1.7929238334522699</v>
       </c>
       <c r="H84" s="1">
-        <v>5.5168197478613301</v>
+        <v>1.9061502456127499</v>
       </c>
       <c r="I84" s="1">
-        <v>2.1817471013311698</v>
+        <v>1.76696337680606</v>
       </c>
       <c r="J84" s="1">
-        <v>3.1626313240976298</v>
+        <v>1.7819369263696201</v>
       </c>
       <c r="K84" s="1">
-        <v>1.96968294871955</v>
+        <v>1.9530485954163399</v>
       </c>
       <c r="L84" s="1">
-        <v>2.1861613864537</v>
+        <v>1.8578343192015201</v>
       </c>
       <c r="M84" s="1">
-        <v>3.0813442059159999</v>
+        <v>1.81018290244337</v>
       </c>
       <c r="N84" s="1">
-        <v>6.2159956778887597</v>
+        <v>2.0773216745122198</v>
       </c>
       <c r="O84" s="1">
-        <v>1.8523293450171501</v>
+        <v>1.7397645456369599</v>
       </c>
       <c r="P84" s="1">
-        <v>1.63165422944141</v>
+        <v>1.5868962693655799</v>
       </c>
       <c r="Q84" s="1">
-        <v>2.7166191598564402</v>
+        <v>1.76303221495489</v>
       </c>
       <c r="R84" s="1">
-        <v>4.40373224589632</v>
+        <v>1.75453421159283</v>
       </c>
       <c r="S84" s="1">
-        <v>3.6299482673241301</v>
+        <v>1.78881926323107</v>
       </c>
       <c r="T84" s="1">
-        <v>3.4631486485629601</v>
+        <v>1.7842027646544201</v>
       </c>
       <c r="U84" s="1">
-        <v>1.9697297215769201</v>
+        <v>1.8130293708815299</v>
       </c>
       <c r="V84" s="1">
-        <v>2.1931903825474102</v>
+        <v>1.8508626309852001</v>
       </c>
       <c r="W84" s="1">
-        <v>3.2638835967755702</v>
+        <v>1.6645666886321999</v>
       </c>
       <c r="X84" s="1">
-        <v>4.0999934032781198</v>
+        <v>1.8167384855662201</v>
       </c>
       <c r="Y84" s="1">
-        <v>2.5813415008148199</v>
+        <v>1.69718621980366</v>
       </c>
       <c r="Z84" s="1">
-        <v>2.35602170475175</v>
+        <v>1.82785569798006</v>
       </c>
       <c r="AA84" s="1">
-        <v>2.61461543337477</v>
+        <v>1.7823517523599299</v>
       </c>
       <c r="AB84" s="1">
-        <v>3.6919596215576802</v>
+        <v>1.80095394711838</v>
       </c>
       <c r="AC84" s="1">
-        <v>3.48638248139493</v>
+        <v>1.8666819825454899</v>
       </c>
       <c r="AD84" s="1">
-        <v>2.5062121102502899</v>
+        <v>1.7473634696920299</v>
       </c>
       <c r="AE84" s="1">
-        <v>3.2124055020169799</v>
+        <v>1.88545213342475</v>
       </c>
       <c r="AF84" s="1">
-        <v>1.8287443578526099</v>
+        <v>1.62941780374997</v>
       </c>
       <c r="AG84" s="1">
-        <v>1.8717648702080101</v>
+        <v>1.8663763395635899</v>
       </c>
       <c r="AJ84" s="2">
         <f t="shared" si="6"/>
-        <v>3.0127802534972932</v>
+        <v>1.8046400748734688</v>
       </c>
       <c r="AK84" s="2">
         <f t="shared" si="7"/>
-        <v>1.1337111241331668</v>
+        <v>9.5831951540820234E-2</v>
       </c>
     </row>
     <row r="85" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D85" s="1">
-        <v>7.1807163910778904</v>
+        <v>4.0005200037488802</v>
       </c>
       <c r="E85" s="1">
-        <v>12.5049048955937</v>
+        <v>4.1523211079644602</v>
       </c>
       <c r="F85" s="1">
-        <v>16.852568356361498</v>
+        <v>4.6201068613849996</v>
       </c>
       <c r="G85" s="1">
-        <v>16.143354488182101</v>
+        <v>4.5328103251767402</v>
       </c>
       <c r="H85" s="1">
-        <v>5.7131104143169802</v>
+        <v>4.1472214929890603</v>
       </c>
       <c r="I85" s="1">
-        <v>8.6255170279554108</v>
+        <v>4.0505921063292298</v>
       </c>
       <c r="J85" s="1">
-        <v>16.719191797876899</v>
+        <v>4.5015534866769</v>
       </c>
       <c r="K85" s="1">
-        <v>7.1426937389177203</v>
+        <v>4.2488587994719103</v>
       </c>
       <c r="L85" s="1">
-        <v>9.8794251062473908</v>
+        <v>4.1032296922769698</v>
       </c>
       <c r="M85" s="1">
-        <v>18.199192764401602</v>
+        <v>3.9326804869231999</v>
       </c>
       <c r="N85" s="1">
-        <v>8.5658214584048498</v>
+        <v>4.3123146671800603</v>
       </c>
       <c r="O85" s="1">
-        <v>20.1271533638641</v>
+        <v>4.4065974779549597</v>
       </c>
       <c r="P85" s="1">
-        <v>10.467675889557601</v>
+        <v>4.0459217485039796</v>
       </c>
       <c r="Q85" s="1">
-        <v>15.4633238347604</v>
+        <v>4.4621183257189196</v>
       </c>
       <c r="R85" s="1">
-        <v>6.5987017326233799</v>
+        <v>3.86965844871369</v>
       </c>
       <c r="S85" s="1">
-        <v>12.4450497836184</v>
+        <v>3.63285708647734</v>
       </c>
       <c r="T85" s="1">
-        <v>12.597205758685201</v>
+        <v>4.5093642888852701</v>
       </c>
       <c r="U85" s="1">
-        <v>9.0241220165345695</v>
+        <v>4.4474840628067804</v>
       </c>
       <c r="V85" s="1">
-        <v>12.7743588198244</v>
+        <v>4.1983276035211903</v>
       </c>
       <c r="W85" s="1">
-        <v>8.7016439510255594</v>
+        <v>3.98723792943859</v>
       </c>
       <c r="X85" s="1">
-        <v>15.6230732792355</v>
+        <v>4.23076439691377</v>
       </c>
       <c r="Y85" s="1">
-        <v>18.8784944413731</v>
+        <v>4.6533642089385197</v>
       </c>
       <c r="Z85" s="1">
-        <v>12.3094055893465</v>
+        <v>3.7489898828847399</v>
       </c>
       <c r="AA85" s="1">
-        <v>8.0141253755273407</v>
+        <v>3.9477910886501002</v>
       </c>
       <c r="AB85" s="1">
-        <v>11.7052165812488</v>
+        <v>4.5483160567032002</v>
       </c>
       <c r="AC85" s="1">
-        <v>8.6795427979284501</v>
+        <v>4.3406168949837403</v>
       </c>
       <c r="AD85" s="1">
-        <v>7.7799914219694397</v>
+        <v>3.9180215275190302</v>
       </c>
       <c r="AE85" s="1">
-        <v>12.721224037088501</v>
+        <v>3.67707689239049</v>
       </c>
       <c r="AF85" s="1">
-        <v>16.4091195344187</v>
+        <v>4.0565211268986099</v>
       </c>
       <c r="AG85" s="1">
-        <v>14.0589579192028</v>
+        <v>3.99515928560026</v>
       </c>
       <c r="AJ85" s="2">
         <f t="shared" si="6"/>
-        <v>12.063496085572293</v>
+        <v>4.1759465787875207</v>
       </c>
       <c r="AK85" s="2">
         <f t="shared" si="7"/>
-        <v>4.049570083497942</v>
+        <v>0.28296878871980979</v>
       </c>
     </row>
     <row r="86" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D86" s="1">
-        <v>22.6832331736247</v>
+        <v>7.5958040392561097</v>
       </c>
       <c r="E86" s="1">
-        <v>29.674652161198399</v>
+        <v>7.32397819931073</v>
       </c>
       <c r="F86" s="1">
-        <v>33.281197431673398</v>
+        <v>8.3927185002716804</v>
       </c>
       <c r="G86" s="1">
-        <v>37.182691061446803</v>
+        <v>7.8476585337470199</v>
       </c>
       <c r="H86" s="1">
-        <v>23.8791619708912</v>
+        <v>6.6095124862626902</v>
       </c>
       <c r="I86" s="1">
-        <v>33.967042613400203</v>
+        <v>8.3290483034081504</v>
       </c>
       <c r="J86" s="1">
-        <v>33.594883591114197</v>
+        <v>9.8572836615112998</v>
       </c>
       <c r="K86" s="1">
-        <v>34.307847432311199</v>
+        <v>7.5628680872769403</v>
       </c>
       <c r="L86" s="1">
-        <v>24.088484314267799</v>
+        <v>7.1777606972736399</v>
       </c>
       <c r="M86" s="1">
-        <v>23.7599993537684</v>
+        <v>7.3079761876916001</v>
       </c>
       <c r="N86" s="1">
-        <v>20.7710207909501</v>
+        <v>5.8549757426009998</v>
       </c>
       <c r="O86" s="1">
-        <v>30.829058962403401</v>
+        <v>8.3344109023869795</v>
       </c>
       <c r="P86" s="1">
-        <v>21.915833062029598</v>
+        <v>6.6514788094071999</v>
       </c>
       <c r="Q86" s="1">
-        <v>22.880653679344999</v>
+        <v>6.5690173884070804</v>
       </c>
       <c r="R86" s="1">
-        <v>22.963989966542499</v>
+        <v>5.5548052496332696</v>
       </c>
       <c r="S86" s="1">
-        <v>13.0616845808328</v>
+        <v>8.1577297647860902</v>
       </c>
       <c r="T86" s="1">
-        <v>33.614012516869998</v>
+        <v>10.475844267533301</v>
       </c>
       <c r="U86" s="1">
-        <v>17.623608432477798</v>
+        <v>6.6863185641390404</v>
       </c>
       <c r="V86" s="1">
-        <v>34.117505400159601</v>
+        <v>7.7499674354063002</v>
       </c>
       <c r="W86" s="1">
-        <v>31.611527190345601</v>
+        <v>8.2524244154850805</v>
       </c>
       <c r="X86" s="1">
-        <v>19.198149206361101</v>
+        <v>7.2720733573977503</v>
       </c>
       <c r="Y86" s="1">
-        <v>23.3271280427861</v>
+        <v>5.8586525041383499</v>
       </c>
       <c r="Z86" s="1">
-        <v>28.9207753279439</v>
+        <v>6.7235924738898403</v>
       </c>
       <c r="AA86" s="1">
-        <v>34.645462844611899</v>
+        <v>8.6612418069044903</v>
       </c>
       <c r="AB86" s="1">
-        <v>41.307926877346098</v>
+        <v>8.6078821684680999</v>
       </c>
       <c r="AC86" s="1">
-        <v>19.896332307113799</v>
+        <v>7.0748705909678504</v>
       </c>
       <c r="AD86" s="1">
-        <v>31.558197818193801</v>
+        <v>8.1300802229318005</v>
       </c>
       <c r="AE86" s="1">
-        <v>38.671964259559303</v>
+        <v>8.2517585237693201</v>
       </c>
       <c r="AF86" s="1">
-        <v>27.507579463596301</v>
+        <v>8.5045022546847697</v>
       </c>
       <c r="AG86" s="1">
-        <v>32.630795027874299</v>
+        <v>7.4068691335403196</v>
       </c>
       <c r="AJ86" s="2">
         <f t="shared" si="6"/>
-        <v>28.115746628701309</v>
+        <v>7.6261034757495931</v>
       </c>
       <c r="AK86" s="2">
         <f t="shared" si="7"/>
-        <v>6.9401911576444988</v>
+        <v>1.1001520232272202</v>
       </c>
     </row>
     <row r="87" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D87" s="1">
-        <v>61.412105050939303</v>
+        <v>14.681167848909899</v>
       </c>
       <c r="E87" s="1">
-        <v>50.037357027261798</v>
+        <v>11.4222538875139</v>
       </c>
       <c r="F87" s="1">
-        <v>59.8656406882845</v>
+        <v>21.017336459726</v>
       </c>
       <c r="G87" s="1">
-        <v>75.725910162302199</v>
+        <v>24.787609535543201</v>
       </c>
       <c r="H87" s="1">
-        <v>81.863643349915606</v>
+        <v>19.1199674040347</v>
       </c>
       <c r="I87" s="1">
-        <v>52.124725387661002</v>
+        <v>11.4052179491018</v>
       </c>
       <c r="J87" s="1">
-        <v>39.264455129135897</v>
+        <v>10.544060541940899</v>
       </c>
       <c r="K87" s="1">
-        <v>77.734887871202503</v>
+        <v>17.135588542319098</v>
       </c>
       <c r="L87" s="1">
-        <v>59.085137279518001</v>
+        <v>18.537080202083299</v>
       </c>
       <c r="M87" s="1">
-        <v>57.614460768633499</v>
+        <v>13.3295737201571</v>
       </c>
       <c r="N87" s="1">
-        <v>66.666609584678298</v>
+        <v>18.1477001684901</v>
       </c>
       <c r="O87" s="1">
-        <v>41.370662848570902</v>
+        <v>10.6718727971073</v>
       </c>
       <c r="P87" s="1">
-        <v>62.035491433095203</v>
+        <v>17.033311828850699</v>
       </c>
       <c r="Q87" s="1">
-        <v>65.058177792983201</v>
+        <v>13.153645460048001</v>
       </c>
       <c r="R87" s="1">
-        <v>35.164792128955902</v>
+        <v>9.8149942280565003</v>
       </c>
       <c r="S87" s="1">
-        <v>48.547585182297098</v>
+        <v>13.6569591095716</v>
       </c>
       <c r="T87" s="1">
-        <v>87.409935040682797</v>
+        <v>23.848214945980999</v>
       </c>
       <c r="U87" s="1">
-        <v>50.842903864835698</v>
+        <v>13.0868917986922</v>
       </c>
       <c r="V87" s="1">
-        <v>48.219312177084099</v>
+        <v>12.1879020831639</v>
       </c>
       <c r="W87" s="1">
-        <v>68.997929757804201</v>
+        <v>14.8720726370699</v>
       </c>
       <c r="X87" s="1">
-        <v>48.261005928085801</v>
+        <v>12.0620117475897</v>
       </c>
       <c r="Y87" s="1">
-        <v>45.517332661430999</v>
+        <v>12.1682565389644</v>
       </c>
       <c r="Z87" s="1">
-        <v>68.3623886127871</v>
+        <v>20.449334214912501</v>
       </c>
       <c r="AA87" s="1">
-        <v>45.476713365603104</v>
+        <v>12.676101325022</v>
       </c>
       <c r="AB87" s="1">
-        <v>58.322474734213799</v>
+        <v>12.197531851594601</v>
       </c>
       <c r="AC87" s="1">
-        <v>37.580373452801098</v>
+        <v>9.6061029432799998</v>
       </c>
       <c r="AD87" s="1">
-        <v>58.011174056582497</v>
+        <v>14.774885641533</v>
       </c>
       <c r="AE87" s="1">
-        <v>42.930912400466298</v>
+        <v>12.6162657194582</v>
       </c>
       <c r="AF87" s="1">
-        <v>65.562036245471006</v>
+        <v>17.851366642970099</v>
       </c>
       <c r="AG87" s="1">
-        <v>36.747193243703897</v>
+        <v>9.2621240206839204</v>
       </c>
       <c r="AJ87" s="2">
         <f t="shared" si="6"/>
-        <v>56.527110907566239</v>
+        <v>14.737246726478983</v>
       </c>
       <c r="AK87" s="2">
         <f t="shared" si="7"/>
-        <v>13.774878034530461</v>
+        <v>4.1633800488937807</v>
       </c>
     </row>
     <row r="88" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D88" s="1">
-        <v>148.195250113116</v>
+        <v>30.2225899976542</v>
       </c>
       <c r="E88" s="1">
-        <v>137.49558328752599</v>
+        <v>30.174542529036199</v>
       </c>
       <c r="F88" s="1">
-        <v>153.61163721807401</v>
+        <v>33.023809404871102</v>
       </c>
       <c r="G88" s="1">
-        <v>93.990841393525201</v>
+        <v>18.916287595592198</v>
       </c>
       <c r="H88" s="1">
-        <v>186.526730800216</v>
+        <v>36.573744181072499</v>
       </c>
       <c r="I88" s="1">
-        <v>172.11103383715701</v>
+        <v>35.485054055162799</v>
       </c>
       <c r="J88" s="1">
-        <v>93.654382330081106</v>
+        <v>19.707981535013001</v>
       </c>
       <c r="K88" s="1">
-        <v>141.49974313937099</v>
+        <v>29.190746672949601</v>
       </c>
       <c r="L88" s="1">
-        <v>126.05768834656</v>
+        <v>27.041238056340902</v>
       </c>
       <c r="M88" s="1">
-        <v>213.598437741933</v>
+        <v>46.471264816422597</v>
       </c>
       <c r="N88" s="1">
-        <v>123.902452404945</v>
+        <v>25.1597604441504</v>
       </c>
       <c r="O88" s="1">
-        <v>138.70403057660599</v>
+        <v>28.1965313866312</v>
       </c>
       <c r="P88" s="1">
-        <v>134.26437126324399</v>
+        <v>26.224614262435701</v>
       </c>
       <c r="Q88" s="1">
-        <v>180.844273116625</v>
+        <v>36.7281527262708</v>
       </c>
       <c r="R88" s="1">
-        <v>126.351907545659</v>
+        <v>26.0680301602447</v>
       </c>
       <c r="S88" s="1">
-        <v>140.10996004291499</v>
+        <v>26.3437929125868</v>
       </c>
       <c r="T88" s="1">
-        <v>148.86200716788201</v>
+        <v>31.9373068768083</v>
       </c>
       <c r="U88" s="1">
-        <v>152.09570459332099</v>
+        <v>32.141852752063897</v>
       </c>
       <c r="V88" s="1">
-        <v>138.70390923222999</v>
+        <v>28.722748175389199</v>
       </c>
       <c r="W88" s="1">
-        <v>140.380756053618</v>
+        <v>31.217142725197402</v>
       </c>
       <c r="X88" s="1">
-        <v>218.56855504343699</v>
+        <v>45.2728495528983</v>
       </c>
       <c r="Y88" s="1">
-        <v>154.449514669704</v>
+        <v>30.418535604523001</v>
       </c>
       <c r="Z88" s="1">
-        <v>229.82808701918199</v>
+        <v>51.077674670213199</v>
       </c>
       <c r="AA88" s="1">
-        <v>137.739922314984</v>
+        <v>31.3174406351635</v>
       </c>
       <c r="AB88" s="1">
-        <v>125.91624713875601</v>
+        <v>30.094644936575001</v>
       </c>
       <c r="AC88" s="1">
-        <v>123.046394587244</v>
+        <v>27.287252013266201</v>
       </c>
       <c r="AD88" s="1">
-        <v>70.838373023563705</v>
+        <v>17.8663916501432</v>
       </c>
       <c r="AE88" s="1">
-        <v>108.753112887878</v>
+        <v>26.609609532758199</v>
       </c>
       <c r="AF88" s="1">
-        <v>115.663249689577</v>
+        <v>26.3637210294482</v>
       </c>
       <c r="AG88" s="1">
-        <v>129.65052573481401</v>
+        <v>24.928142804200402</v>
       </c>
       <c r="AJ88" s="2">
         <f t="shared" si="6"/>
-        <v>143.51382274379148</v>
+        <v>30.359448456502758</v>
       </c>
       <c r="AK88" s="2">
         <f t="shared" si="7"/>
-        <v>35.592550086673555</v>
+        <v>7.4257000063247807</v>
       </c>
     </row>
     <row r="89" spans="4:40" x14ac:dyDescent="0.25">
@@ -6723,102 +6747,102 @@
     </row>
     <row r="93" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D93" s="1">
-        <v>2.4322005077401201</v>
+        <v>1.72792971404231</v>
       </c>
       <c r="E93" s="1">
-        <v>4.1708506143489297</v>
+        <v>1.7662115813239501</v>
       </c>
       <c r="F93" s="1">
-        <v>1.94317940153437</v>
+        <v>1.7215630119535299</v>
       </c>
       <c r="G93" s="1">
-        <v>1.9137842531551701</v>
+        <v>1.84910626287244</v>
       </c>
       <c r="H93" s="1">
-        <v>1.95946525432668</v>
+        <v>1.8642402635342099</v>
       </c>
       <c r="I93" s="1">
-        <v>1.9580305164363201</v>
+        <v>1.7986577596758</v>
       </c>
       <c r="J93" s="1">
-        <v>3.5281849032531998</v>
+        <v>1.8297848778860399</v>
       </c>
       <c r="K93" s="1">
-        <v>1.91315857439523</v>
+        <v>1.8709701258307501</v>
       </c>
       <c r="L93" s="1">
-        <v>4.5868576878853702</v>
+        <v>1.8845250556494499</v>
       </c>
       <c r="M93" s="1">
-        <v>2.3841278881827201</v>
+        <v>1.7322847744235901</v>
       </c>
       <c r="N93" s="1">
-        <v>3.6791664026212798</v>
+        <v>1.8106944547533801</v>
       </c>
       <c r="O93" s="1">
-        <v>3.5173798965167098</v>
+        <v>1.97632903362955</v>
       </c>
       <c r="P93" s="1">
-        <v>2.7376762220957098</v>
+        <v>1.82451427260986</v>
       </c>
       <c r="Q93" s="1">
-        <v>4.7624233369821001</v>
+        <v>1.8492215505099101</v>
       </c>
       <c r="R93" s="1">
-        <v>3.5596926213353002</v>
+        <v>1.7749955335929599</v>
       </c>
       <c r="S93" s="1">
-        <v>2.0194790623865599</v>
+        <v>1.8279673546907</v>
       </c>
       <c r="T93" s="1">
-        <v>4.3843815489252602</v>
+        <v>1.8182047967116099</v>
       </c>
       <c r="U93" s="1">
-        <v>1.83393715596637</v>
+        <v>1.83233215014395</v>
       </c>
       <c r="V93" s="1">
-        <v>2.9751937900896701</v>
+        <v>1.75835579642864</v>
       </c>
       <c r="W93" s="1">
-        <v>3.33418126858429</v>
+        <v>1.7350383467707999</v>
       </c>
       <c r="X93" s="1">
-        <v>2.0849343920755299</v>
+        <v>1.8635676199198501</v>
       </c>
       <c r="Y93" s="1">
-        <v>2.0707827874826701</v>
+        <v>1.7687410901054199</v>
       </c>
       <c r="Z93" s="1">
-        <v>4.8528324908556204</v>
+        <v>1.83829290793267</v>
       </c>
       <c r="AA93" s="1">
-        <v>1.8707109489770599</v>
+        <v>1.8207570418112</v>
       </c>
       <c r="AB93" s="1">
-        <v>2.2295067943687998</v>
+        <v>1.85715180785033</v>
       </c>
       <c r="AC93" s="1">
-        <v>2.2066595093542101</v>
+        <v>1.80592084579695</v>
       </c>
       <c r="AD93" s="1">
-        <v>3.3874077129140798</v>
+        <v>1.81583731847842</v>
       </c>
       <c r="AE93" s="1">
-        <v>2.52930429394985</v>
+        <v>1.8827969746092801</v>
       </c>
       <c r="AF93" s="1">
-        <v>2.7746698991805299</v>
+        <v>1.7446841249787699</v>
       </c>
       <c r="AG93" s="1">
-        <v>4.0253865571121796</v>
+        <v>1.8325130994293799</v>
       </c>
       <c r="AJ93" s="2">
         <f t="shared" si="6"/>
-        <v>2.9208515431010635</v>
+        <v>1.8161063182648562</v>
       </c>
       <c r="AK93" s="2">
         <f t="shared" si="7"/>
-        <v>0.98262761810157395</v>
+        <v>5.6723045740935646E-2</v>
       </c>
       <c r="AM93" s="1" t="s">
         <v>0</v>
@@ -6826,434 +6850,434 @@
     </row>
     <row r="94" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D94" s="1">
-        <v>11.491996359608599</v>
+        <v>3.9900999148476002</v>
       </c>
       <c r="E94" s="1">
-        <v>10.3907558000462</v>
+        <v>4.0037029322556901</v>
       </c>
       <c r="F94" s="1">
-        <v>16.561420360491802</v>
+        <v>3.9713641981422199</v>
       </c>
       <c r="G94" s="1">
-        <v>5.83725828978874</v>
+        <v>4.2826224255016996</v>
       </c>
       <c r="H94" s="1">
-        <v>7.2889125352747</v>
+        <v>4.5678041901292703</v>
       </c>
       <c r="I94" s="1">
-        <v>11.6795263811208</v>
+        <v>3.9195115876329201</v>
       </c>
       <c r="J94" s="1">
-        <v>14.024658086417499</v>
+        <v>3.9355783159704898</v>
       </c>
       <c r="K94" s="1">
-        <v>13.0306412272295</v>
+        <v>3.4880935869764902</v>
       </c>
       <c r="L94" s="1">
-        <v>8.19504230733118</v>
+        <v>3.3262218592164499</v>
       </c>
       <c r="M94" s="1">
-        <v>11.8489792786112</v>
+        <v>4.0392425284317897</v>
       </c>
       <c r="N94" s="1">
-        <v>8.4086071159035694</v>
+        <v>4.1860742127095296</v>
       </c>
       <c r="O94" s="1">
-        <v>8.3344512866187905</v>
+        <v>3.86711481274321</v>
       </c>
       <c r="P94" s="1">
-        <v>7.3706551864540097</v>
+        <v>4.0782462693085098</v>
       </c>
       <c r="Q94" s="1">
-        <v>13.784316639913399</v>
+        <v>4.4569316791578197</v>
       </c>
       <c r="R94" s="1">
-        <v>9.3418082777104203</v>
+        <v>4.0462069231081603</v>
       </c>
       <c r="S94" s="1">
-        <v>7.9017632743131498</v>
+        <v>4.4324228659803797</v>
       </c>
       <c r="T94" s="1">
-        <v>14.790003117538699</v>
+        <v>4.0422878375463203</v>
       </c>
       <c r="U94" s="1">
-        <v>12.690033825446401</v>
+        <v>4.2086825380361601</v>
       </c>
       <c r="V94" s="1">
-        <v>6.3625235707987704</v>
+        <v>4.0361194284530599</v>
       </c>
       <c r="W94" s="1">
-        <v>10.1375915530977</v>
+        <v>4.48264884846607</v>
       </c>
       <c r="X94" s="1">
-        <v>10.3827047858867</v>
+        <v>4.1367552399070799</v>
       </c>
       <c r="Y94" s="1">
-        <v>7.3002539142650198</v>
+        <v>4.2194591352364403</v>
       </c>
       <c r="Z94" s="1">
-        <v>17.206027735467099</v>
+        <v>4.6353026919328002</v>
       </c>
       <c r="AA94" s="1">
-        <v>7.9975115468588198</v>
+        <v>4.2639985965843596</v>
       </c>
       <c r="AB94" s="1">
-        <v>11.9619091854521</v>
+        <v>4.1507376092090498</v>
       </c>
       <c r="AC94" s="1">
-        <v>15.4307990724358</v>
+        <v>4.1682627980342097</v>
       </c>
       <c r="AD94" s="1">
-        <v>8.8900395512722099</v>
+        <v>3.8211035145131902</v>
       </c>
       <c r="AE94" s="1">
-        <v>13.922354484006499</v>
+        <v>4.2723111017228996</v>
       </c>
       <c r="AF94" s="1">
-        <v>7.52469766932263</v>
+        <v>4.3936328634538802</v>
       </c>
       <c r="AG94" s="1">
-        <v>14.0059916930732</v>
+        <v>4.1057632645956001</v>
       </c>
       <c r="AJ94" s="2">
         <f t="shared" si="6"/>
-        <v>10.803107803725172</v>
+        <v>4.1176101256601108</v>
       </c>
       <c r="AK94" s="2">
         <f t="shared" si="7"/>
-        <v>3.1945751337292569</v>
+        <v>0.28258891646853568</v>
       </c>
       <c r="AM94" s="2">
         <f>AVERAGE(AJ93,AJ100,AJ107,AJ114)</f>
-        <v>2.9247104327935829</v>
+        <v>1.8064833707413275</v>
       </c>
       <c r="AN94" s="2">
         <f>_xlfn.STDEV.S(D93:AG93,D100:AG100,D107:AG107,D114:AG114)</f>
-        <v>0.97742739945453216</v>
+        <v>6.235545608961942E-2</v>
       </c>
     </row>
     <row r="95" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D95" s="1">
-        <v>25.3863016012107</v>
+        <v>8.3188732960538001</v>
       </c>
       <c r="E95" s="1">
-        <v>28.063571739943001</v>
+        <v>6.4173216131780499</v>
       </c>
       <c r="F95" s="1">
-        <v>23.912997049928801</v>
+        <v>6.6251951238879201</v>
       </c>
       <c r="G95" s="1">
-        <v>20.773196629870299</v>
+        <v>5.1721354579037504</v>
       </c>
       <c r="H95" s="1">
-        <v>21.514994775973701</v>
+        <v>6.1119690174603996</v>
       </c>
       <c r="I95" s="1">
-        <v>26.425365670697801</v>
+        <v>6.4073219061691704</v>
       </c>
       <c r="J95" s="1">
-        <v>33.210365469392499</v>
+        <v>7.72990685357638</v>
       </c>
       <c r="K95" s="1">
-        <v>30.3862195052325</v>
+        <v>7.1431773706939401</v>
       </c>
       <c r="L95" s="1">
-        <v>28.843930884227799</v>
+        <v>6.72316985298521</v>
       </c>
       <c r="M95" s="1">
-        <v>24.939579509644499</v>
+        <v>6.7882852456935696</v>
       </c>
       <c r="N95" s="1">
-        <v>28.017101484236001</v>
+        <v>7.0347557900586297</v>
       </c>
       <c r="O95" s="1">
-        <v>20.683733350092801</v>
+        <v>8.6495495650576899</v>
       </c>
       <c r="P95" s="1">
-        <v>31.526434701036099</v>
+        <v>8.2051783169708301</v>
       </c>
       <c r="Q95" s="1">
-        <v>28.736685355340899</v>
+        <v>7.3566314375029398</v>
       </c>
       <c r="R95" s="1">
-        <v>22.091223664721799</v>
+        <v>7.6021609421800598</v>
       </c>
       <c r="S95" s="1">
-        <v>31.391741534746</v>
+        <v>7.9670704570525901</v>
       </c>
       <c r="T95" s="1">
-        <v>19.995556426468401</v>
+        <v>5.8963709828324102</v>
       </c>
       <c r="U95" s="1">
-        <v>23.6426923904442</v>
+        <v>7.0609770420729703</v>
       </c>
       <c r="V95" s="1">
-        <v>18.208629904780899</v>
+        <v>7.1670886907672404</v>
       </c>
       <c r="W95" s="1">
-        <v>39.881450132389503</v>
+        <v>9.3721861480991606</v>
       </c>
       <c r="X95" s="1">
-        <v>22.502882787829002</v>
+        <v>7.6013830323883704</v>
       </c>
       <c r="Y95" s="1">
-        <v>31.994741194541799</v>
+        <v>7.9060556407381499</v>
       </c>
       <c r="Z95" s="1">
-        <v>27.9380652678019</v>
+        <v>7.38879084354451</v>
       </c>
       <c r="AA95" s="1">
-        <v>24.4712193894227</v>
+        <v>7.3807221199993798</v>
       </c>
       <c r="AB95" s="1">
-        <v>24.519146911434898</v>
+        <v>7.3940089350624101</v>
       </c>
       <c r="AC95" s="1">
-        <v>20.4345782138979</v>
+        <v>6.9345709256200596</v>
       </c>
       <c r="AD95" s="1">
-        <v>28.183842688778199</v>
+        <v>6.3903667371884296</v>
       </c>
       <c r="AE95" s="1">
-        <v>18.4889129300091</v>
+        <v>5.7268021362832799</v>
       </c>
       <c r="AF95" s="1">
-        <v>33.840413175946097</v>
+        <v>7.1773676404496403</v>
       </c>
       <c r="AG95" s="1">
-        <v>33.645884513271099</v>
+        <v>8.5396206565860293</v>
       </c>
       <c r="AJ95" s="2">
         <f t="shared" si="6"/>
-        <v>26.455048628443695</v>
+        <v>7.2063004592685651</v>
       </c>
       <c r="AK95" s="2">
         <f t="shared" si="7"/>
-        <v>5.2820484166911177</v>
+        <v>0.92116293200939314</v>
       </c>
       <c r="AM95" s="2">
-        <f t="shared" ref="AM95:AM98" si="8">AVERAGE(AJ94,AJ101,AJ108,AJ115)</f>
-        <v>10.937666684704672</v>
+        <f t="shared" ref="AM95:AM97" si="8">AVERAGE(AJ94,AJ101,AJ108,AJ115)</f>
+        <v>4.1919852913229558</v>
       </c>
       <c r="AN95" s="2">
         <f>_xlfn.STDEV.S(D94:AG94,D101:AG101,D108:AG108,D115:AG115)</f>
-        <v>3.2848722449768277</v>
+        <v>0.26604106589089233</v>
       </c>
     </row>
     <row r="96" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D96" s="1">
-        <v>55.618336684028897</v>
+        <v>12.4527176148123</v>
       </c>
       <c r="E96" s="1">
-        <v>107.21833630343799</v>
+        <v>21.9817776546159</v>
       </c>
       <c r="F96" s="1">
-        <v>52.780733875846998</v>
+        <v>13.0035505776536</v>
       </c>
       <c r="G96" s="1">
-        <v>69.610043560348302</v>
+        <v>17.153664002705401</v>
       </c>
       <c r="H96" s="1">
-        <v>75.235362840339207</v>
+        <v>17.740514320274201</v>
       </c>
       <c r="I96" s="1">
-        <v>56.677074495214498</v>
+        <v>17.803068220531799</v>
       </c>
       <c r="J96" s="1">
-        <v>77.740099043176997</v>
+        <v>16.1376531583313</v>
       </c>
       <c r="K96" s="1">
-        <v>65.106173954061305</v>
+        <v>14.4513424109649</v>
       </c>
       <c r="L96" s="1">
-        <v>52.592358174678601</v>
+        <v>13.3175878040753</v>
       </c>
       <c r="M96" s="1">
-        <v>56.444294111304004</v>
+        <v>14.308686798311699</v>
       </c>
       <c r="N96" s="1">
-        <v>48.4420042754505</v>
+        <v>14.120913978526801</v>
       </c>
       <c r="O96" s="1">
-        <v>69.170390099416906</v>
+        <v>15.4477447706457</v>
       </c>
       <c r="P96" s="1">
-        <v>64.215424856734202</v>
+        <v>13.281772735467399</v>
       </c>
       <c r="Q96" s="1">
-        <v>65.121411807447203</v>
+        <v>13.5630403632384</v>
       </c>
       <c r="R96" s="1">
-        <v>65.411210692379896</v>
+        <v>15.695998055854201</v>
       </c>
       <c r="S96" s="1">
-        <v>77.784456027644197</v>
+        <v>17.748140763878499</v>
       </c>
       <c r="T96" s="1">
-        <v>74.432377753945403</v>
+        <v>15.3799827446003</v>
       </c>
       <c r="U96" s="1">
-        <v>35.169480239887797</v>
+        <v>11.887259533739901</v>
       </c>
       <c r="V96" s="1">
-        <v>70.673070869341302</v>
+        <v>18.305199861599601</v>
       </c>
       <c r="W96" s="1">
-        <v>55.035499804387399</v>
+        <v>12.810438832413</v>
       </c>
       <c r="X96" s="1">
-        <v>57.781556138182999</v>
+        <v>12.7338863008333</v>
       </c>
       <c r="Y96" s="1">
-        <v>102.59727513723701</v>
+        <v>22.252811783982299</v>
       </c>
       <c r="Z96" s="1">
-        <v>60.692310054392003</v>
+        <v>15.478375925589599</v>
       </c>
       <c r="AA96" s="1">
-        <v>44.138952734723098</v>
+        <v>10.4156446744317</v>
       </c>
       <c r="AB96" s="1">
-        <v>77.782107953644001</v>
+        <v>17.320243615093599</v>
       </c>
       <c r="AC96" s="1">
-        <v>60.056585892099903</v>
+        <v>13.486175418296799</v>
       </c>
       <c r="AD96" s="1">
-        <v>71.702671262135894</v>
+        <v>18.312092306973199</v>
       </c>
       <c r="AE96" s="1">
-        <v>46.697790930968601</v>
+        <v>11.340060543879</v>
       </c>
       <c r="AF96" s="1">
-        <v>40.1089414901532</v>
+        <v>16.629938011669498</v>
       </c>
       <c r="AG96" s="1">
-        <v>80.821155779112203</v>
+        <v>19.818132087733002</v>
       </c>
       <c r="AJ96" s="2">
         <f t="shared" si="6"/>
-        <v>64.561916228057356</v>
+        <v>15.479280495690737</v>
       </c>
       <c r="AK96" s="2">
         <f t="shared" si="7"/>
-        <v>16.105053923607247</v>
+        <v>2.9578198935629882</v>
       </c>
       <c r="AM96" s="2">
         <f>AVERAGE(AJ95,AJ102,AJ109,AJ116)</f>
-        <v>26.563534451970121</v>
+        <v>7.2895535757884522</v>
       </c>
       <c r="AN96" s="2">
         <f>_xlfn.STDEV.S(D95:AG95,D102:AG102,D109:AG109,D116:AG116)</f>
-        <v>5.3653382231685267</v>
+        <v>0.94422242739166706</v>
       </c>
     </row>
     <row r="97" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D97" s="1">
-        <v>142.05972083945201</v>
+        <v>28.984401027325902</v>
       </c>
       <c r="E97" s="1">
-        <v>264.01329065222097</v>
+        <v>56.419176964542999</v>
       </c>
       <c r="F97" s="1">
-        <v>193.976339523033</v>
+        <v>43.969926056128699</v>
       </c>
       <c r="G97" s="1">
-        <v>258.504292035878</v>
+        <v>53.287466589564197</v>
       </c>
       <c r="H97" s="1">
-        <v>142.405823722837</v>
+        <v>30.257561137047499</v>
       </c>
       <c r="I97" s="1">
-        <v>230.15827339549</v>
+        <v>50.440752418726902</v>
       </c>
       <c r="J97" s="1">
-        <v>211.68815207242099</v>
+        <v>44.616178913561299</v>
       </c>
       <c r="K97" s="1">
-        <v>262.64692398647901</v>
+        <v>53.6024721132518</v>
       </c>
       <c r="L97" s="1">
-        <v>162.77400176953901</v>
+        <v>33.417715655545898</v>
       </c>
       <c r="M97" s="1">
-        <v>88.833049438706695</v>
+        <v>19.751453976407699</v>
       </c>
       <c r="N97" s="1">
-        <v>82.964997078001403</v>
+        <v>19.983271305343798</v>
       </c>
       <c r="O97" s="1">
-        <v>256.67778132724101</v>
+        <v>53.233277506735803</v>
       </c>
       <c r="P97" s="1">
-        <v>122.705785614381</v>
+        <v>26.692451930796</v>
       </c>
       <c r="Q97" s="1">
-        <v>143.91346197633499</v>
+        <v>30.134040982098199</v>
       </c>
       <c r="R97" s="1">
-        <v>237.84785757088599</v>
+        <v>50.091000539495298</v>
       </c>
       <c r="S97" s="1">
-        <v>181.881392267781</v>
+        <v>38.535883509521597</v>
       </c>
       <c r="T97" s="1">
-        <v>258.69568636149899</v>
+        <v>57.697482516090801</v>
       </c>
       <c r="U97" s="1">
-        <v>133.469557466726</v>
+        <v>32.921334673698198</v>
       </c>
       <c r="V97" s="1">
-        <v>181.81408598790699</v>
+        <v>38.111817407792302</v>
       </c>
       <c r="W97" s="1">
-        <v>156.60009523003399</v>
+        <v>40.4778014372678</v>
       </c>
       <c r="X97" s="1">
-        <v>157.70559751434899</v>
+        <v>34.064817778841999</v>
       </c>
       <c r="Y97" s="1">
-        <v>162.325824798453</v>
+        <v>35.926349818547301</v>
       </c>
       <c r="Z97" s="1">
-        <v>144.84158276733399</v>
+        <v>32.411330948917303</v>
       </c>
       <c r="AA97" s="1">
-        <v>198.53165617407299</v>
+        <v>41.198549324360101</v>
       </c>
       <c r="AB97" s="1">
-        <v>147.27288985663401</v>
+        <v>31.535639344669701</v>
       </c>
       <c r="AC97" s="1">
-        <v>201.709030959362</v>
+        <v>44.451582998226797</v>
       </c>
       <c r="AD97" s="1">
-        <v>138.83913999068301</v>
+        <v>33.558781241290198</v>
       </c>
       <c r="AE97" s="1">
-        <v>170.43567656340201</v>
+        <v>35.178919041129198</v>
       </c>
       <c r="AF97" s="1">
-        <v>154.21463444941699</v>
+        <v>31.600950689982099</v>
       </c>
       <c r="AG97" s="1">
-        <v>205.24172226536501</v>
+        <v>44.865834056179899</v>
       </c>
       <c r="AJ97" s="2">
         <f t="shared" si="6"/>
-        <v>179.82494412186404</v>
+        <v>38.913940730102908</v>
       </c>
       <c r="AK97" s="2">
         <f t="shared" si="7"/>
-        <v>50.645839362420844</v>
+        <v>10.329078143646568</v>
       </c>
       <c r="AM97" s="2">
         <f t="shared" si="8"/>
-        <v>61.016029252835921</v>
+        <v>14.728223413967598</v>
       </c>
       <c r="AN97" s="2">
         <f>_xlfn.STDEV.S(D96:AG96,D103:AG103,D110:AG110,D117:AG117)</f>
-        <v>13.971128997919132</v>
+        <v>3.3027006404724517</v>
       </c>
     </row>
     <row r="98" spans="4:40" x14ac:dyDescent="0.25">
@@ -7261,11 +7285,11 @@
       <c r="AK98" s="2"/>
       <c r="AM98" s="2">
         <f>AVERAGE(AJ97,AJ104,AJ111,AJ118)</f>
-        <v>170.00332855406748</v>
+        <v>37.148685335744439</v>
       </c>
       <c r="AN98" s="2">
         <f>_xlfn.STDEV.S(D97:AG97,D104:AG104,D111:AG111,D118:AG118)</f>
-        <v>41.579542361006631</v>
+        <v>8.4557645936539618</v>
       </c>
     </row>
     <row r="99" spans="4:40" x14ac:dyDescent="0.25">
@@ -7274,502 +7298,502 @@
     </row>
     <row r="100" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D100" s="1">
-        <v>2.50110099307676</v>
+        <v>1.7768792951094301</v>
       </c>
       <c r="E100" s="1">
-        <v>4.2034327548495503</v>
+        <v>1.78000899562082</v>
       </c>
       <c r="F100" s="1">
-        <v>1.95342424557188</v>
+        <v>1.7306394485112</v>
       </c>
       <c r="G100" s="1">
-        <v>1.95905856854719</v>
+        <v>1.8928504937075701</v>
       </c>
       <c r="H100" s="1">
-        <v>1.9470877410757299</v>
+        <v>1.85246426571344</v>
       </c>
       <c r="I100" s="1">
-        <v>2.0316448653811698</v>
+        <v>1.8662803114397699</v>
       </c>
       <c r="J100" s="1">
-        <v>3.4322293291328299</v>
+        <v>1.78002046267287</v>
       </c>
       <c r="K100" s="1">
-        <v>1.8658894172857901</v>
+        <v>1.8247433352193501</v>
       </c>
       <c r="L100" s="1">
-        <v>4.5483190500550199</v>
+        <v>1.86869133384166</v>
       </c>
       <c r="M100" s="1">
-        <v>2.3574965702741899</v>
+        <v>1.7129347107107999</v>
       </c>
       <c r="N100" s="1">
-        <v>3.6727257465556402</v>
+        <v>1.8075246986328799</v>
       </c>
       <c r="O100" s="1">
-        <v>3.0106841363279999</v>
+        <v>1.6916291798919401</v>
       </c>
       <c r="P100" s="1">
-        <v>2.7848935916192401</v>
+        <v>1.8559821152698099</v>
       </c>
       <c r="Q100" s="1">
-        <v>4.72647282824133</v>
+        <v>1.8352621750383999</v>
       </c>
       <c r="R100" s="1">
-        <v>3.6393870886426098</v>
+        <v>1.81473416795557</v>
       </c>
       <c r="S100" s="1">
-        <v>2.0014589975252499</v>
+        <v>1.81165617280751</v>
       </c>
       <c r="T100" s="1">
-        <v>4.4411707850153599</v>
+        <v>1.84175531582324</v>
       </c>
       <c r="U100" s="1">
-        <v>1.7844055110297901</v>
+        <v>1.7828438537911899</v>
       </c>
       <c r="V100" s="1">
-        <v>2.94407836134231</v>
+        <v>1.7399664079193899</v>
       </c>
       <c r="W100" s="1">
-        <v>3.3084126390316002</v>
+        <v>1.7216288897509</v>
       </c>
       <c r="X100" s="1">
-        <v>2.0431422821385499</v>
+        <v>1.82621276446602</v>
       </c>
       <c r="Y100" s="1">
-        <v>2.1171418916881</v>
+        <v>1.80833831536935</v>
       </c>
       <c r="Z100" s="1">
-        <v>4.56038690031302</v>
+        <v>1.72751211010714</v>
       </c>
       <c r="AA100" s="1">
-        <v>1.82644315767836</v>
+        <v>1.77767134074305</v>
       </c>
       <c r="AB100" s="1">
-        <v>2.2529691564920098</v>
+        <v>1.8766956676598701</v>
       </c>
       <c r="AC100" s="1">
-        <v>2.1301751026874101</v>
+        <v>1.7433263296097199</v>
       </c>
       <c r="AD100" s="1">
-        <v>3.2975777291550501</v>
+        <v>1.7676834938868</v>
       </c>
       <c r="AE100" s="1">
-        <v>2.5374896518977099</v>
+        <v>1.8888900995911999</v>
       </c>
       <c r="AF100" s="1">
-        <v>2.8669088340750299</v>
+        <v>1.8026830262040701</v>
       </c>
       <c r="AG100" s="1">
-        <v>4.0130518871439396</v>
+        <v>1.8268978761525001</v>
       </c>
       <c r="AJ100" s="2">
         <f t="shared" si="6"/>
-        <v>2.8919553271283478</v>
+        <v>1.8011468884405819</v>
       </c>
       <c r="AK100" s="2">
         <f t="shared" si="7"/>
-        <v>0.95704096113637915</v>
+        <v>5.5204377014370636E-2</v>
       </c>
     </row>
     <row r="101" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D101" s="1">
-        <v>11.5524992558771</v>
+        <v>4.01110693518544</v>
       </c>
       <c r="E101" s="1">
-        <v>11.0639577948554</v>
+        <v>4.2630970372163599</v>
       </c>
       <c r="F101" s="1">
-        <v>18.010571875876199</v>
+        <v>4.3188650960489303</v>
       </c>
       <c r="G101" s="1">
-        <v>5.4898637538506696</v>
+        <v>4.02774940871097</v>
       </c>
       <c r="H101" s="1">
-        <v>7.39468918420385</v>
+        <v>4.6340921333386502</v>
       </c>
       <c r="I101" s="1">
-        <v>12.534075007218799</v>
+        <v>4.20628804867171</v>
       </c>
       <c r="J101" s="1">
-        <v>15.3052572426915</v>
+        <v>4.29493811211149</v>
       </c>
       <c r="K101" s="1">
-        <v>15.520395653281</v>
+        <v>4.15456090007455</v>
       </c>
       <c r="L101" s="1">
-        <v>10.3987125273381</v>
+        <v>4.2206523918976702</v>
       </c>
       <c r="M101" s="1">
-        <v>12.612044634864301</v>
+        <v>4.2993667101420501</v>
       </c>
       <c r="N101" s="1">
-        <v>8.6229696981732999</v>
+        <v>4.2927907788946804</v>
       </c>
       <c r="O101" s="1">
-        <v>8.7626159325748905</v>
+        <v>4.0657795823517597</v>
       </c>
       <c r="P101" s="1">
-        <v>8.1333294807015797</v>
+        <v>4.5002404498162303</v>
       </c>
       <c r="Q101" s="1">
-        <v>12.9789984620094</v>
+        <v>4.1965453145186897</v>
       </c>
       <c r="R101" s="1">
-        <v>9.65206094078275</v>
+        <v>4.1805863104727399</v>
       </c>
       <c r="S101" s="1">
-        <v>7.8180201136825502</v>
+        <v>4.3854478950577302</v>
       </c>
       <c r="T101" s="1">
-        <v>15.561669467088601</v>
+        <v>4.2531936415978704</v>
       </c>
       <c r="U101" s="1">
-        <v>13.092790865168199</v>
+        <v>4.34225795189748</v>
       </c>
       <c r="V101" s="1">
-        <v>6.0371952197650502</v>
+        <v>3.8297446993659698</v>
       </c>
       <c r="W101" s="1">
-        <v>9.6793061841032095</v>
+        <v>4.2800038345263998</v>
       </c>
       <c r="X101" s="1">
-        <v>10.241772508452399</v>
+        <v>4.0806039431909502</v>
       </c>
       <c r="Y101" s="1">
-        <v>7.0665456697606501</v>
+        <v>4.0843785751853598</v>
       </c>
       <c r="Z101" s="1">
-        <v>17.217956031087901</v>
+        <v>4.6385161739549998</v>
       </c>
       <c r="AA101" s="1">
-        <v>8.0573907518937506</v>
+        <v>4.2959241330137301</v>
       </c>
       <c r="AB101" s="1">
-        <v>12.4493858475425</v>
+        <v>4.3198901820618101</v>
       </c>
       <c r="AC101" s="1">
-        <v>14.013963301873501</v>
+        <v>3.7855383645401299</v>
       </c>
       <c r="AD101" s="1">
-        <v>9.6117814024118609</v>
+        <v>4.1313215183876801</v>
       </c>
       <c r="AE101" s="1">
-        <v>13.955785503475401</v>
+        <v>4.2825699782500699</v>
       </c>
       <c r="AF101" s="1">
-        <v>8.1115827059822507</v>
+        <v>4.7363120643272296</v>
       </c>
       <c r="AG101" s="1">
-        <v>13.2313758973497</v>
+        <v>3.8786897986139302</v>
       </c>
       <c r="AJ101" s="2">
         <f t="shared" si="6"/>
-        <v>11.139285430464545</v>
+        <v>4.2330350654474422</v>
       </c>
       <c r="AK101" s="2">
         <f t="shared" si="7"/>
-        <v>3.3288299516284705</v>
+        <v>0.21943188501901109</v>
       </c>
     </row>
     <row r="102" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D102" s="1">
-        <v>20.434997345746702</v>
+        <v>6.6963733589439096</v>
       </c>
       <c r="E102" s="1">
-        <v>30.600252605053502</v>
+        <v>6.9973866559409501</v>
       </c>
       <c r="F102" s="1">
-        <v>23.567974505973599</v>
+        <v>6.5296051954874397</v>
       </c>
       <c r="G102" s="1">
-        <v>25.890789985568901</v>
+        <v>6.4463200008874297</v>
       </c>
       <c r="H102" s="1">
-        <v>25.008646068129799</v>
+        <v>7.1044437392908799</v>
       </c>
       <c r="I102" s="1">
-        <v>24.719560622681801</v>
+        <v>5.9937177128343198</v>
       </c>
       <c r="J102" s="1">
-        <v>33.047454095482401</v>
+        <v>7.69198827821854</v>
       </c>
       <c r="K102" s="1">
-        <v>23.8101703882697</v>
+        <v>5.5972830144456598</v>
       </c>
       <c r="L102" s="1">
-        <v>35.091645622352502</v>
+        <v>8.1794362525271804</v>
       </c>
       <c r="M102" s="1">
-        <v>30.1474149661708</v>
+        <v>8.2058020317270604</v>
       </c>
       <c r="N102" s="1">
-        <v>34.294028157870599</v>
+        <v>8.6108162646216204</v>
       </c>
       <c r="O102" s="1">
-        <v>19.072297002294899</v>
+        <v>7.9756770912012698</v>
       </c>
       <c r="P102" s="1">
-        <v>31.874667895108701</v>
+        <v>8.2958106856591698</v>
       </c>
       <c r="Q102" s="1">
-        <v>33.109217772733899</v>
+        <v>8.47600582064889</v>
       </c>
       <c r="R102" s="1">
-        <v>27.899990266423401</v>
+        <v>9.6011076393797605</v>
       </c>
       <c r="S102" s="1">
-        <v>28.558128542702701</v>
+        <v>7.2479133395463702</v>
       </c>
       <c r="T102" s="1">
-        <v>21.603685929610201</v>
+        <v>6.3705827495232903</v>
       </c>
       <c r="U102" s="1">
-        <v>30.849673201561998</v>
+        <v>9.2133683691508903</v>
       </c>
       <c r="V102" s="1">
-        <v>15.6947734777305</v>
+        <v>6.1776110605038701</v>
       </c>
       <c r="W102" s="1">
-        <v>41.677523793986602</v>
+        <v>9.7942655016910596</v>
       </c>
       <c r="X102" s="1">
-        <v>19.559721842281</v>
+        <v>6.6071951372633499</v>
       </c>
       <c r="Y102" s="1">
-        <v>29.236706809898902</v>
+        <v>7.2245319749747097</v>
       </c>
       <c r="Z102" s="1">
-        <v>30.7063922361612</v>
+        <v>8.1209313393047609</v>
       </c>
       <c r="AA102" s="1">
-        <v>24.422904169829899</v>
+        <v>7.3661498502523601</v>
       </c>
       <c r="AB102" s="1">
-        <v>24.130902654311601</v>
+        <v>7.2769297594889002</v>
       </c>
       <c r="AC102" s="1">
-        <v>22.8210491425675</v>
+        <v>7.7444311411607201</v>
       </c>
       <c r="AD102" s="1">
-        <v>25.443588794897099</v>
+        <v>5.7690452400356902</v>
       </c>
       <c r="AE102" s="1">
-        <v>25.0379091797877</v>
+        <v>7.7553046153484297</v>
       </c>
       <c r="AF102" s="1">
-        <v>35.824419649145</v>
+        <v>7.5981646261466702</v>
       </c>
       <c r="AG102" s="1">
-        <v>26.870219953197999</v>
+        <v>6.8198975499910697</v>
       </c>
       <c r="AJ102" s="2">
         <f t="shared" si="6"/>
-        <v>27.36689022258436</v>
+        <v>7.4496031998732084</v>
       </c>
       <c r="AK102" s="2">
         <f t="shared" si="7"/>
-        <v>5.7369694078232145</v>
+        <v>1.0761340270061506</v>
       </c>
     </row>
     <row r="103" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D103" s="1">
-        <v>47.037445463117898</v>
+        <v>10.5314912418541</v>
       </c>
       <c r="E103" s="1">
-        <v>100.843296383621</v>
+        <v>20.674774441470198</v>
       </c>
       <c r="F103" s="1">
-        <v>42.555788879367299</v>
+        <v>10.4844384006952</v>
       </c>
       <c r="G103" s="1">
-        <v>49.889492182145503</v>
+        <v>12.2940245744308</v>
       </c>
       <c r="H103" s="1">
-        <v>79.208490104989707</v>
+        <v>18.677378561686599</v>
       </c>
       <c r="I103" s="1">
-        <v>42.471916524401898</v>
+        <v>13.341027815479499</v>
       </c>
       <c r="J103" s="1">
-        <v>62.015089405131398</v>
+        <v>12.873382150530601</v>
       </c>
       <c r="K103" s="1">
-        <v>70.760475641802898</v>
+        <v>15.7064038716815</v>
       </c>
       <c r="L103" s="1">
-        <v>48.180849600247797</v>
+        <v>12.2004929479503</v>
       </c>
       <c r="M103" s="1">
-        <v>58.531507005829297</v>
+        <v>14.837797420729499</v>
       </c>
       <c r="N103" s="1">
-        <v>52.430660373860903</v>
+        <v>15.283612972881199</v>
       </c>
       <c r="O103" s="1">
-        <v>73.483370215319496</v>
+        <v>16.4109577283227</v>
       </c>
       <c r="P103" s="1">
-        <v>58.851550476397797</v>
+        <v>12.1723545441191</v>
       </c>
       <c r="Q103" s="1">
-        <v>77.835900162400904</v>
+        <v>16.211126668032499</v>
       </c>
       <c r="R103" s="1">
-        <v>42.461204952259102</v>
+        <v>10.188941365329701</v>
       </c>
       <c r="S103" s="1">
-        <v>64.493605506717003</v>
+        <v>14.7155569037657</v>
       </c>
       <c r="T103" s="1">
-        <v>91.265190935818396</v>
+        <v>18.858151575053501</v>
       </c>
       <c r="U103" s="1">
-        <v>33.343065116284698</v>
+        <v>11.269932509213801</v>
       </c>
       <c r="V103" s="1">
-        <v>45.8140810061915</v>
+        <v>11.8664138826555</v>
       </c>
       <c r="W103" s="1">
-        <v>61.598683151145998</v>
+        <v>14.3381302154003</v>
       </c>
       <c r="X103" s="1">
-        <v>68.006238372857496</v>
+        <v>14.9871994640705</v>
       </c>
       <c r="Y103" s="1">
-        <v>54.705468982981202</v>
+        <v>11.865329787798</v>
       </c>
       <c r="Z103" s="1">
-        <v>51.939695435653498</v>
+        <v>13.246194298638301</v>
       </c>
       <c r="AA103" s="1">
-        <v>62.785015792589299</v>
+        <v>14.815630522646</v>
       </c>
       <c r="AB103" s="1">
-        <v>72.449153618512099</v>
+        <v>16.1327202796794</v>
       </c>
       <c r="AC103" s="1">
-        <v>46.109907854638003</v>
+        <v>10.3543399381107</v>
       </c>
       <c r="AD103" s="1">
-        <v>60.059821055960299</v>
+        <v>15.3386333836327</v>
       </c>
       <c r="AE103" s="1">
-        <v>54.321720034339201</v>
+        <v>13.1914504253033</v>
       </c>
       <c r="AF103" s="1">
-        <v>31.511375703058</v>
+        <v>13.065221996270701</v>
       </c>
       <c r="AG103" s="1">
-        <v>55.055946363329802</v>
+        <v>13.500252585172801</v>
       </c>
       <c r="AJ103" s="2">
         <f t="shared" si="6"/>
-        <v>58.667200210032327</v>
+        <v>13.981112082420156</v>
       </c>
       <c r="AK103" s="2">
         <f t="shared" si="7"/>
-        <v>15.851284338516974</v>
+        <v>2.6056710009603679</v>
       </c>
     </row>
     <row r="104" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D104" s="1">
-        <v>139.883853203917</v>
+        <v>28.540459424751599</v>
       </c>
       <c r="E104" s="1">
-        <v>163.28425014367599</v>
+        <v>34.893557750901302</v>
       </c>
       <c r="F104" s="1">
-        <v>124.997868861966</v>
+        <v>28.3341105649728</v>
       </c>
       <c r="G104" s="1">
-        <v>208.00589634637899</v>
+        <v>42.877846107296598</v>
       </c>
       <c r="H104" s="1">
-        <v>138.31400067408501</v>
+        <v>29.388154375280699</v>
       </c>
       <c r="I104" s="1">
-        <v>192.39682030358199</v>
+        <v>42.1650729122711</v>
       </c>
       <c r="J104" s="1">
-        <v>106.705638651372</v>
+        <v>22.489675584331799</v>
       </c>
       <c r="K104" s="1">
-        <v>166.09357950208499</v>
+        <v>33.897318606743099</v>
       </c>
       <c r="L104" s="1">
-        <v>174.89674012916299</v>
+        <v>35.906529711012098</v>
       </c>
       <c r="M104" s="1">
-        <v>137.46685703638099</v>
+        <v>30.564866535499501</v>
       </c>
       <c r="N104" s="1">
-        <v>200.112562145699</v>
+        <v>48.199888649490603</v>
       </c>
       <c r="O104" s="1">
-        <v>171.903372732771</v>
+        <v>35.651624763581601</v>
       </c>
       <c r="P104" s="1">
-        <v>158.98195753009199</v>
+        <v>34.583685178235697</v>
       </c>
       <c r="Q104" s="1">
-        <v>174.29206450963201</v>
+        <v>36.495016815393001</v>
       </c>
       <c r="R104" s="1">
-        <v>175.12659654253801</v>
+        <v>36.881839220594401</v>
       </c>
       <c r="S104" s="1">
-        <v>197.57514542031899</v>
+        <v>41.8609770541267</v>
       </c>
       <c r="T104" s="1">
-        <v>185.48214277650601</v>
+        <v>41.368500729230803</v>
       </c>
       <c r="U104" s="1">
-        <v>177.605124673457</v>
+        <v>43.807725597625101</v>
       </c>
       <c r="V104" s="1">
-        <v>149.435139087696</v>
+        <v>31.3245516939601</v>
       </c>
       <c r="W104" s="1">
-        <v>80.447570761453207</v>
+        <v>20.793989879822998</v>
       </c>
       <c r="X104" s="1">
-        <v>228.81930949009401</v>
+        <v>49.425563866566797</v>
       </c>
       <c r="Y104" s="1">
-        <v>167.354019829783</v>
+        <v>37.039202279797699</v>
       </c>
       <c r="Z104" s="1">
-        <v>123.56986741286801</v>
+        <v>27.651340115951701</v>
       </c>
       <c r="AA104" s="1">
-        <v>161.32071804779901</v>
+        <v>33.476674136572299</v>
       </c>
       <c r="AB104" s="1">
-        <v>166.68250934680199</v>
+        <v>35.691833744433801</v>
       </c>
       <c r="AC104" s="1">
-        <v>208.774358574123</v>
+        <v>46.008603005627997</v>
       </c>
       <c r="AD104" s="1">
-        <v>148.42409977366401</v>
+        <v>35.875559986716198</v>
       </c>
       <c r="AE104" s="1">
-        <v>161.387453165925</v>
+        <v>33.311312887393697</v>
       </c>
       <c r="AF104" s="1">
-        <v>208.59358645661999</v>
+        <v>42.744034399824002</v>
       </c>
       <c r="AG104" s="1">
-        <v>237.94145741111001</v>
+        <v>52.013995134428697</v>
       </c>
       <c r="AJ104" s="2">
         <f t="shared" si="6"/>
-        <v>167.86248535138523</v>
+        <v>36.442117023747819</v>
       </c>
       <c r="AK104" s="2">
         <f t="shared" si="7"/>
-        <v>34.90307623659988</v>
+        <v>7.5460349808627187</v>
       </c>
     </row>
     <row r="105" spans="4:40" x14ac:dyDescent="0.25">
@@ -7782,502 +7806,502 @@
     </row>
     <row r="107" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D107" s="1">
-        <v>2.35350897461967</v>
+        <v>1.73348286486482</v>
       </c>
       <c r="E107" s="1">
-        <v>4.1164322925995798</v>
+        <v>1.71785686600582</v>
       </c>
       <c r="F107" s="1">
-        <v>1.9170950769425099</v>
+        <v>1.66600624901815</v>
       </c>
       <c r="G107" s="1">
-        <v>1.9255190639597799</v>
+        <v>1.8593296610766401</v>
       </c>
       <c r="H107" s="1">
-        <v>2.0235320558332401</v>
+        <v>1.79125589207709</v>
       </c>
       <c r="I107" s="1">
-        <v>1.9239877801763201</v>
+        <v>1.8047487743886701</v>
       </c>
       <c r="J107" s="1">
-        <v>3.56759423552124</v>
+        <v>1.7906586914472</v>
       </c>
       <c r="K107" s="1">
-        <v>1.9447243090586199</v>
+        <v>1.8838631344766199</v>
       </c>
       <c r="L107" s="1">
-        <v>4.8060056553530899</v>
+        <v>1.7729050715132399</v>
       </c>
       <c r="M107" s="1">
-        <v>2.48684069224552</v>
+        <v>1.6626958416881601</v>
       </c>
       <c r="N107" s="1">
-        <v>3.6787752776965799</v>
+        <v>1.8179030526809199</v>
       </c>
       <c r="O107" s="1">
-        <v>3.6685709815474801</v>
+        <v>2.0656883329181501</v>
       </c>
       <c r="P107" s="1">
-        <v>2.7692512492378101</v>
+        <v>1.78482038775935</v>
       </c>
       <c r="Q107" s="1">
-        <v>4.8499547146886099</v>
+        <v>1.8220241301884601</v>
       </c>
       <c r="R107" s="1">
-        <v>3.6450232191549499</v>
+        <v>1.7378627958019699</v>
       </c>
       <c r="S107" s="1">
-        <v>1.9724851341721501</v>
+        <v>1.8809874991476701</v>
       </c>
       <c r="T107" s="1">
-        <v>4.2163759940280601</v>
+        <v>1.8702838819149901</v>
       </c>
       <c r="U107" s="1">
-        <v>1.85084443214082</v>
+        <v>1.84119839003966</v>
       </c>
       <c r="V107" s="1">
-        <v>2.8958459129632299</v>
+        <v>1.8163935426394799</v>
       </c>
       <c r="W107" s="1">
-        <v>3.2174588656325001</v>
+        <v>1.7975974697216299</v>
       </c>
       <c r="X107" s="1">
-        <v>2.1401470139076801</v>
+        <v>1.84683039280973</v>
       </c>
       <c r="Y107" s="1">
-        <v>2.0327351253567301</v>
+        <v>1.8192306249903001</v>
       </c>
       <c r="Z107" s="1">
-        <v>5.0630100993246696</v>
+        <v>1.8296459507595799</v>
       </c>
       <c r="AA107" s="1">
-        <v>1.8749291244753199</v>
+        <v>1.8515127878033499</v>
       </c>
       <c r="AB107" s="1">
-        <v>2.3140161923742899</v>
+        <v>1.81687246507818</v>
       </c>
       <c r="AC107" s="1">
-        <v>2.2050987249862701</v>
+        <v>1.8129190733023299</v>
       </c>
       <c r="AD107" s="1">
-        <v>3.41642228597973</v>
+        <v>1.7715813760130701</v>
       </c>
       <c r="AE107" s="1">
-        <v>2.6425764906328402</v>
+        <v>1.7914143716859401</v>
       </c>
       <c r="AF107" s="1">
-        <v>2.6935961538278299</v>
+        <v>1.7383166515388799</v>
       </c>
       <c r="AG107" s="1">
-        <v>4.0781657857366902</v>
+        <v>1.8404675439359901</v>
       </c>
       <c r="AJ107" s="2">
         <f t="shared" si="6"/>
-        <v>2.9430174304724606</v>
+        <v>1.8078784589095345</v>
       </c>
       <c r="AK107" s="2">
         <f t="shared" si="7"/>
-        <v>1.0092038782511032</v>
+        <v>7.4143103024272447E-2</v>
       </c>
     </row>
     <row r="108" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D108" s="1">
-        <v>12.000867434665</v>
+        <v>4.14799493696104</v>
       </c>
       <c r="E108" s="1">
-        <v>10.0029719514185</v>
+        <v>3.9901483896501699</v>
       </c>
       <c r="F108" s="1">
-        <v>18.2294029485086</v>
+        <v>3.9235062660657198</v>
       </c>
       <c r="G108" s="1">
-        <v>5.6111753977559102</v>
+        <v>4.1481593996084598</v>
       </c>
       <c r="H108" s="1">
-        <v>7.2343229201509303</v>
+        <v>4.5561590533311804</v>
       </c>
       <c r="I108" s="1">
-        <v>11.6812077916061</v>
+        <v>3.8616720083219498</v>
       </c>
       <c r="J108" s="1">
-        <v>14.5643309266137</v>
+        <v>4.0849366877288897</v>
       </c>
       <c r="K108" s="1">
-        <v>12.5430003073407</v>
+        <v>3.6839748698974302</v>
       </c>
       <c r="L108" s="1">
-        <v>8.0476371957539392</v>
+        <v>3.27341006468825</v>
       </c>
       <c r="M108" s="1">
-        <v>12.188216009604901</v>
+        <v>3.89493253339778</v>
       </c>
       <c r="N108" s="1">
-        <v>9.0591580319696092</v>
+        <v>4.1840999955909597</v>
       </c>
       <c r="O108" s="1">
-        <v>8.2625291312130908</v>
+        <v>3.7898598514586901</v>
       </c>
       <c r="P108" s="1">
-        <v>7.6792347427741499</v>
+        <v>4.3832312369889204</v>
       </c>
       <c r="Q108" s="1">
-        <v>14.2854154596901</v>
+        <v>4.6923456923588596</v>
       </c>
       <c r="R108" s="1">
-        <v>9.6530774853238306</v>
+        <v>4.0198093909146699</v>
       </c>
       <c r="S108" s="1">
-        <v>7.3172534508340901</v>
+        <v>4.1368813435643501</v>
       </c>
       <c r="T108" s="1">
-        <v>14.2655931397613</v>
+        <v>4.2646249519668</v>
       </c>
       <c r="U108" s="1">
-        <v>12.6390710589578</v>
+        <v>4.1145943119251296</v>
       </c>
       <c r="V108" s="1">
-        <v>6.09756354546177</v>
+        <v>3.8002091361302601</v>
       </c>
       <c r="W108" s="1">
-        <v>10.0776637213174</v>
+        <v>4.3194288413293096</v>
       </c>
       <c r="X108" s="1">
-        <v>10.474616302590899</v>
+        <v>4.28596963413501</v>
       </c>
       <c r="Y108" s="1">
-        <v>7.9138313307714299</v>
+        <v>4.3071551526355698</v>
       </c>
       <c r="Z108" s="1">
-        <v>17.702801678407202</v>
+        <v>4.4870159810347099</v>
       </c>
       <c r="AA108" s="1">
-        <v>8.0796093920136993</v>
+        <v>4.3898848847605603</v>
       </c>
       <c r="AB108" s="1">
-        <v>12.0980319172803</v>
+        <v>4.2938051992370099</v>
       </c>
       <c r="AC108" s="1">
-        <v>15.5127347757729</v>
+        <v>4.2575089407831097</v>
       </c>
       <c r="AD108" s="1">
-        <v>8.8776518087611098</v>
+        <v>3.67283278133679</v>
       </c>
       <c r="AE108" s="1">
-        <v>13.483732718799899</v>
+        <v>4.39228540216408</v>
       </c>
       <c r="AF108" s="1">
-        <v>7.0775772617853496</v>
+        <v>4.1635788149157804</v>
       </c>
       <c r="AG108" s="3">
-        <v>14.4638227325303</v>
+        <v>4.5907974670001899</v>
       </c>
       <c r="AJ108" s="2">
         <f t="shared" si="6"/>
-        <v>10.904136752314484</v>
+        <v>4.1370271073293887</v>
       </c>
       <c r="AK108" s="2">
         <f t="shared" si="7"/>
-        <v>3.3858722649711295</v>
+        <v>0.30873432754420171</v>
       </c>
     </row>
     <row r="109" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D109" s="1">
-        <v>22.455010360499202</v>
+        <v>7.20763157647652</v>
       </c>
       <c r="E109" s="1">
-        <v>31.509062406480801</v>
+        <v>7.07761281678349</v>
       </c>
       <c r="F109" s="1">
-        <v>25.841109060150298</v>
+        <v>7.9599728381862098</v>
       </c>
       <c r="G109" s="1">
-        <v>26.527671704885801</v>
+        <v>5.9626139688554201</v>
       </c>
       <c r="H109" s="1">
-        <v>24.363711729091602</v>
+        <v>7.0691814718185402</v>
       </c>
       <c r="I109" s="1">
-        <v>27.063988099704499</v>
+        <v>6.3360981873606796</v>
       </c>
       <c r="J109" s="1">
-        <v>29.7704303351127</v>
+        <v>7.2388174242407501</v>
       </c>
       <c r="K109" s="1">
-        <v>25.533890609355101</v>
+        <v>6.3677927942749504</v>
       </c>
       <c r="L109" s="1">
-        <v>31.318786040433601</v>
+        <v>6.7002387364553497</v>
       </c>
       <c r="M109" s="1">
-        <v>26.244838123950501</v>
+        <v>7.0915437681059696</v>
       </c>
       <c r="N109" s="1">
-        <v>25.921758172711598</v>
+        <v>6.5963778596116001</v>
       </c>
       <c r="O109" s="1">
-        <v>15.9403065139988</v>
+        <v>6.78393723378659</v>
       </c>
       <c r="P109" s="1">
-        <v>30.776977142213301</v>
+        <v>7.3918861513788103</v>
       </c>
       <c r="Q109" s="1">
-        <v>27.267374384499199</v>
+        <v>6.7846480759839798</v>
       </c>
       <c r="R109" s="1">
-        <v>21.303588158378201</v>
+        <v>6.61500817428524</v>
       </c>
       <c r="S109" s="1">
-        <v>30.812711655393599</v>
+        <v>7.5643543979330898</v>
       </c>
       <c r="T109" s="1">
-        <v>17.3180034956379</v>
+        <v>5.07736740863173</v>
       </c>
       <c r="U109" s="1">
-        <v>24.673677546351399</v>
+        <v>7.4375842118667199</v>
       </c>
       <c r="V109" s="1">
-        <v>18.390131169982599</v>
+        <v>7.1692581865614002</v>
       </c>
       <c r="W109" s="1">
-        <v>40.579196856397203</v>
+        <v>9.5951735882566194</v>
       </c>
       <c r="X109" s="1">
-        <v>20.888253408107399</v>
+        <v>7.2838106968476897</v>
       </c>
       <c r="Y109" s="1">
-        <v>32.061724759903399</v>
+        <v>7.9661962660637204</v>
       </c>
       <c r="Z109" s="1">
-        <v>26.3045537127114</v>
+        <v>7.3519484007060703</v>
       </c>
       <c r="AA109" s="1">
-        <v>24.372257178706999</v>
+        <v>7.3473418125091898</v>
       </c>
       <c r="AB109" s="1">
-        <v>26.8810915542484</v>
+        <v>8.4458436822822005</v>
       </c>
       <c r="AC109" s="1">
-        <v>20.619071568000699</v>
+        <v>6.5411721114318704</v>
       </c>
       <c r="AD109" s="1">
-        <v>33.522251914278101</v>
+        <v>7.4012243536065796</v>
       </c>
       <c r="AE109" s="1">
-        <v>20.4832454668312</v>
+        <v>6.2104003481764298</v>
       </c>
       <c r="AF109" s="1">
-        <v>26.4336266693171</v>
+        <v>5.3171208957408904</v>
       </c>
       <c r="AG109" s="1">
-        <v>31.304684555454202</v>
+        <v>8.6203866916357601</v>
       </c>
       <c r="AJ109" s="2">
         <f t="shared" si="6"/>
-        <v>26.216099478426219</v>
+        <v>7.0837514709951348</v>
       </c>
       <c r="AK109" s="2">
         <f t="shared" si="7"/>
-        <v>5.3095648102768571</v>
+        <v>0.91286834719569976</v>
       </c>
     </row>
     <row r="110" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D110" s="1">
-        <v>49.700052624772198</v>
+        <v>11.2409359864679</v>
       </c>
       <c r="E110" s="1">
-        <v>65.966131442074001</v>
+        <v>13.805825469062899</v>
       </c>
       <c r="F110" s="1">
-        <v>57.923957239078298</v>
+        <v>12.8554282121932</v>
       </c>
       <c r="G110" s="1">
-        <v>53.923018241341097</v>
+        <v>13.8661171041703</v>
       </c>
       <c r="H110" s="1">
-        <v>73.454815804887701</v>
+        <v>16.137331260175198</v>
       </c>
       <c r="I110" s="1">
-        <v>60.767056131971103</v>
+        <v>18.559279968885502</v>
       </c>
       <c r="J110" s="1">
-        <v>62.313103380141399</v>
+        <v>12.1235249665902</v>
       </c>
       <c r="K110" s="1">
-        <v>64.410298668771006</v>
+        <v>13.654132625480599</v>
       </c>
       <c r="L110" s="1">
-        <v>38.466276032062503</v>
+        <v>9.2831995505405001</v>
       </c>
       <c r="M110" s="1">
-        <v>49.924701626514398</v>
+        <v>11.811926723770901</v>
       </c>
       <c r="N110" s="1">
-        <v>47.2097874865579</v>
+        <v>13.2765067824336</v>
       </c>
       <c r="O110" s="1">
-        <v>68.348739712175202</v>
+        <v>14.8035709575566</v>
       </c>
       <c r="P110" s="1">
-        <v>65.981794378655295</v>
+        <v>14.4420643622145</v>
       </c>
       <c r="Q110" s="1">
-        <v>69.567254171719995</v>
+        <v>14.815501174952599</v>
       </c>
       <c r="R110" s="1">
-        <v>64.843917816295402</v>
+        <v>14.406336156768599</v>
       </c>
       <c r="S110" s="1">
-        <v>63.748953792835998</v>
+        <v>15.0194334282904</v>
       </c>
       <c r="T110" s="1">
-        <v>81.635859199399306</v>
+        <v>15.721311220379899</v>
       </c>
       <c r="U110" s="1">
-        <v>45.325915560677103</v>
+        <v>14.6157679032801</v>
       </c>
       <c r="V110" s="1">
-        <v>56.453013315604601</v>
+        <v>13.8094816620697</v>
       </c>
       <c r="W110" s="1">
-        <v>59.167640704416399</v>
+        <v>13.2367989873115</v>
       </c>
       <c r="X110" s="1">
-        <v>73.514595773318007</v>
+        <v>15.099762637612599</v>
       </c>
       <c r="Y110" s="1">
-        <v>70.115676645267598</v>
+        <v>16.360553541570599</v>
       </c>
       <c r="Z110" s="1">
-        <v>85.559405122913205</v>
+        <v>20.8977081408839</v>
       </c>
       <c r="AA110" s="1">
-        <v>52.360804800564999</v>
+        <v>12.562876976738201</v>
       </c>
       <c r="AB110" s="1">
-        <v>49.9849575262716</v>
+        <v>10.840967080916201</v>
       </c>
       <c r="AC110" s="1">
-        <v>71.061508841395806</v>
+        <v>15.6846573728702</v>
       </c>
       <c r="AD110" s="1">
-        <v>58.7873273098552</v>
+        <v>14.540564765340999</v>
       </c>
       <c r="AE110" s="1">
-        <v>40.563928780544998</v>
+        <v>9.6194424335373796</v>
       </c>
       <c r="AF110" s="1">
-        <v>44.578592659411299</v>
+        <v>17.217762987358601</v>
       </c>
       <c r="AG110" s="1">
-        <v>66.865923809316598</v>
+        <v>16.0364920014364</v>
       </c>
       <c r="AJ110" s="2">
         <f t="shared" si="6"/>
-        <v>60.417500286627003</v>
+        <v>14.211508748028656</v>
       </c>
       <c r="AK110" s="2">
         <f t="shared" si="7"/>
-        <v>11.637672249236589</v>
+        <v>2.4501124947015538</v>
       </c>
     </row>
     <row r="111" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D111" s="1">
-        <v>130.76808891651601</v>
+        <v>25.6194584266891</v>
       </c>
       <c r="E111" s="1">
-        <v>129.08344703000901</v>
+        <v>25.7931005425121</v>
       </c>
       <c r="F111" s="1">
-        <v>160.017500358788</v>
+        <v>34.256250972151101</v>
       </c>
       <c r="G111" s="1">
-        <v>113.68616329797101</v>
+        <v>22.865435923917701</v>
       </c>
       <c r="H111" s="1">
-        <v>168.210600316989</v>
+        <v>34.784822450585601</v>
       </c>
       <c r="I111" s="1">
-        <v>133.884076982686</v>
+        <v>29.4240708060195</v>
       </c>
       <c r="J111" s="1">
-        <v>190.304615332499</v>
+        <v>38.2125440274962</v>
       </c>
       <c r="K111" s="1">
-        <v>164.63299662831699</v>
+        <v>31.475150763149799</v>
       </c>
       <c r="L111" s="1">
-        <v>189.50568294599401</v>
+        <v>36.272228056789601</v>
       </c>
       <c r="M111" s="1">
-        <v>111.116892407237</v>
+        <v>22.415344993618199</v>
       </c>
       <c r="N111" s="1">
-        <v>116.14104995909901</v>
+        <v>28.9780108935099</v>
       </c>
       <c r="O111" s="1">
-        <v>213.67793053501299</v>
+        <v>42.309079273161302</v>
       </c>
       <c r="P111" s="1">
-        <v>141.168041335466</v>
+        <v>28.0252610024605</v>
       </c>
       <c r="Q111" s="1">
-        <v>155.95860145376699</v>
+        <v>29.969635323252799</v>
       </c>
       <c r="R111" s="1">
-        <v>176.08350045526799</v>
+        <v>32.462736311446598</v>
       </c>
       <c r="S111" s="1">
-        <v>218.965965834347</v>
+        <v>49.602789190557502</v>
       </c>
       <c r="T111" s="1">
-        <v>177.63938159651701</v>
+        <v>38.918802881690901</v>
       </c>
       <c r="U111" s="1">
-        <v>130.39338779923901</v>
+        <v>30.659189889442501</v>
       </c>
       <c r="V111" s="1">
-        <v>218.624054169678</v>
+        <v>39.6492924070253</v>
       </c>
       <c r="W111" s="1">
-        <v>131.56762430720801</v>
+        <v>33.994913228040403</v>
       </c>
       <c r="X111" s="1">
-        <v>175.18119704152599</v>
+        <v>33.9322747864611</v>
       </c>
       <c r="Y111" s="1">
-        <v>124.94423692578999</v>
+        <v>26.254755350808001</v>
       </c>
       <c r="Z111" s="1">
-        <v>190.41593122482101</v>
+        <v>38.452089429328304</v>
       </c>
       <c r="AA111" s="1">
-        <v>131.484421790493</v>
+        <v>23.190684139945201</v>
       </c>
       <c r="AB111" s="1">
-        <v>146.58066349425499</v>
+        <v>28.2279149183851</v>
       </c>
       <c r="AC111" s="1">
-        <v>244.42290437379</v>
+        <v>48.854400980162403</v>
       </c>
       <c r="AD111" s="1">
-        <v>217.13454364037699</v>
+        <v>46.223264681271601</v>
       </c>
       <c r="AE111" s="1">
-        <v>156.48586464532099</v>
+        <v>27.180892648920398</v>
       </c>
       <c r="AF111" s="1">
-        <v>260.60971133248</v>
+        <v>51.926103577104797</v>
       </c>
       <c r="AG111" s="1">
-        <v>166.199195013847</v>
+        <v>31.827209851831199</v>
       </c>
       <c r="AJ111" s="2">
         <f t="shared" si="6"/>
-        <v>166.1629423715103</v>
+        <v>33.72525692425782</v>
       </c>
       <c r="AK111" s="2">
         <f t="shared" si="7"/>
-        <v>39.849774174132939</v>
+        <v>8.0436151414310331</v>
       </c>
     </row>
     <row r="112" spans="4:40" x14ac:dyDescent="0.25">
@@ -8290,502 +8314,502 @@
     </row>
     <row r="114" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D114" s="1">
-        <v>2.35350897461967</v>
+        <v>1.7989604243000701</v>
       </c>
       <c r="E114" s="1">
-        <v>4.1164322925995798</v>
+        <v>1.7319008102425399</v>
       </c>
       <c r="F114" s="1">
-        <v>1.9170950769425099</v>
+        <v>1.6961400926388801</v>
       </c>
       <c r="G114" s="1">
-        <v>1.9255190639597799</v>
+        <v>1.95249939153278</v>
       </c>
       <c r="H114" s="1">
-        <v>2.0235320558332401</v>
+        <v>1.8252036949405901</v>
       </c>
       <c r="I114" s="1">
-        <v>1.9239877801763201</v>
+        <v>1.9078764631012799</v>
       </c>
       <c r="J114" s="1">
-        <v>3.56759423552124</v>
+        <v>1.78913683631141</v>
       </c>
       <c r="K114" s="1">
-        <v>1.9447243090586199</v>
+        <v>1.84491054912214</v>
       </c>
       <c r="L114" s="1">
-        <v>4.8060056553530899</v>
+        <v>1.8360966193277199</v>
       </c>
       <c r="M114" s="1">
-        <v>2.48684069224552</v>
+        <v>1.68133106946654</v>
       </c>
       <c r="N114" s="1">
-        <v>3.6787752776965799</v>
+        <v>1.80767046942896</v>
       </c>
       <c r="O114" s="1">
-        <v>3.6685709815474801</v>
+        <v>1.66179416874525</v>
       </c>
       <c r="P114" s="1">
-        <v>2.7692512492378101</v>
+        <v>1.82345902248224</v>
       </c>
       <c r="Q114" s="1">
-        <v>4.8499547146886099</v>
+        <v>1.8361600216432099</v>
       </c>
       <c r="R114" s="1">
-        <v>3.6450232191549499</v>
+        <v>1.8200394061562299</v>
       </c>
       <c r="S114" s="1">
-        <v>1.9724851341721501</v>
+        <v>1.81307668577032</v>
       </c>
       <c r="T114" s="1">
-        <v>4.2163759940280601</v>
+        <v>1.8672912094026699</v>
       </c>
       <c r="U114" s="1">
-        <v>1.85084443214082</v>
+        <v>1.7704788316995601</v>
       </c>
       <c r="V114" s="1">
-        <v>2.8958459129632299</v>
+        <v>1.77505676821696</v>
       </c>
       <c r="W114" s="1">
-        <v>3.2174588656325001</v>
+        <v>1.72761392522113</v>
       </c>
       <c r="X114" s="1">
-        <v>2.1401470139076801</v>
+        <v>1.7931515498964401</v>
       </c>
       <c r="Y114" s="1">
-        <v>2.0327351253567301</v>
+        <v>1.8335805735566799</v>
       </c>
       <c r="Z114" s="1">
-        <v>5.0630100993246696</v>
+        <v>1.7949917547655001</v>
       </c>
       <c r="AA114" s="1">
-        <v>1.8749291244753199</v>
+        <v>1.7636240972297701</v>
       </c>
       <c r="AB114" s="1">
-        <v>2.3140161923742899</v>
+        <v>1.87142990677274</v>
       </c>
       <c r="AC114" s="1">
-        <v>2.2050987249862701</v>
+        <v>1.7342979618671399</v>
       </c>
       <c r="AD114" s="1">
-        <v>3.41642228597973</v>
+        <v>1.78293658268599</v>
       </c>
       <c r="AE114" s="1">
-        <v>2.6425764906328402</v>
+        <v>1.8515187982224</v>
       </c>
       <c r="AF114" s="1">
-        <v>2.6935961538278299</v>
+        <v>1.80514189879928</v>
       </c>
       <c r="AG114" s="1">
-        <v>4.0781657857366902</v>
+        <v>1.82668493696368</v>
       </c>
       <c r="AJ114" s="2">
         <f t="shared" si="6"/>
-        <v>2.9430174304724606</v>
+        <v>1.8008018173503368</v>
       </c>
       <c r="AK114" s="2">
         <f t="shared" si="7"/>
-        <v>1.0092038782511032</v>
+        <v>6.3499226559815297E-2</v>
       </c>
     </row>
     <row r="115" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D115" s="1">
-        <v>12.000867434665</v>
+        <v>4.0453631070435296</v>
       </c>
       <c r="E115" s="1">
-        <v>10.0029719514185</v>
+        <v>4.13478669011407</v>
       </c>
       <c r="F115" s="1">
-        <v>18.2294029485086</v>
+        <v>4.2812327241271904</v>
       </c>
       <c r="G115" s="1">
-        <v>5.6111753977559102</v>
+        <v>4.1659822321897702</v>
       </c>
       <c r="H115" s="1">
-        <v>7.2343229201509303</v>
+        <v>4.6716148698363202</v>
       </c>
       <c r="I115" s="1">
-        <v>11.6812077916061</v>
+        <v>4.1185109304954004</v>
       </c>
       <c r="J115" s="1">
-        <v>14.5643309266137</v>
+        <v>4.4157190606057704</v>
       </c>
       <c r="K115" s="1">
-        <v>12.5430003073407</v>
+        <v>4.2313126880147998</v>
       </c>
       <c r="L115" s="1">
-        <v>8.0476371957539392</v>
+        <v>4.3059022891137504</v>
       </c>
       <c r="M115" s="1">
-        <v>12.188216009604901</v>
+        <v>4.2695052410615997</v>
       </c>
       <c r="N115" s="1">
-        <v>9.0591580319696092</v>
+        <v>4.2456897552980299</v>
       </c>
       <c r="O115" s="1">
-        <v>8.2625291312130908</v>
+        <v>4.0815177992568801</v>
       </c>
       <c r="P115" s="1">
-        <v>7.6792347427741499</v>
+        <v>4.52672489921326</v>
       </c>
       <c r="Q115" s="1">
-        <v>14.2854154596901</v>
+        <v>4.3271040726862502</v>
       </c>
       <c r="R115" s="1">
-        <v>9.6530774853238306</v>
+        <v>4.1358815495523897</v>
       </c>
       <c r="S115" s="1">
-        <v>7.3172534508340901</v>
+        <v>4.4386528743247498</v>
       </c>
       <c r="T115" s="1">
-        <v>14.2655931397613</v>
+        <v>4.37792514179334</v>
       </c>
       <c r="U115" s="1">
-        <v>12.6390710589578</v>
+        <v>4.4509902701675204</v>
       </c>
       <c r="V115" s="1">
-        <v>6.09756354546177</v>
+        <v>3.8497782781457199</v>
       </c>
       <c r="W115" s="1">
-        <v>10.0776637213174</v>
+        <v>4.5026586060272198</v>
       </c>
       <c r="X115" s="1">
-        <v>10.474616302590899</v>
+        <v>4.2844999753977202</v>
       </c>
       <c r="Y115" s="1">
-        <v>7.9138313307714299</v>
+        <v>4.1216260871604797</v>
       </c>
       <c r="Z115" s="1">
-        <v>17.702801678407202</v>
+        <v>4.5453291427064801</v>
       </c>
       <c r="AA115" s="1">
-        <v>8.0796093920136993</v>
+        <v>4.3202973686583901</v>
       </c>
       <c r="AB115" s="1">
-        <v>12.0980319172803</v>
+        <v>4.37613187332484</v>
       </c>
       <c r="AC115" s="1">
-        <v>15.5127347757729</v>
+        <v>3.7502943771103201</v>
       </c>
       <c r="AD115" s="1">
-        <v>8.8776518087611098</v>
+        <v>4.4910171676909503</v>
       </c>
       <c r="AE115" s="1">
-        <v>13.483732718799899</v>
+        <v>4.3128911817343001</v>
       </c>
       <c r="AF115" s="1">
-        <v>7.0775772617853496</v>
+        <v>4.6730556982142799</v>
       </c>
       <c r="AG115" s="1">
-        <v>14.4638227325303</v>
+        <v>3.95607005458112</v>
       </c>
       <c r="AJ115" s="2">
         <f t="shared" si="6"/>
-        <v>10.904136752314484</v>
+        <v>4.2802688668548825</v>
       </c>
       <c r="AK115" s="2">
         <f t="shared" si="7"/>
-        <v>3.3858722649711295</v>
+        <v>0.22012860810269835</v>
       </c>
     </row>
     <row r="116" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D116" s="1">
-        <v>22.455010360499202</v>
+        <v>7.1471988683397196</v>
       </c>
       <c r="E116" s="1">
-        <v>31.509062406480801</v>
+        <v>7.2637665090876098</v>
       </c>
       <c r="F116" s="1">
-        <v>25.841109060150298</v>
+        <v>6.4406355467007996</v>
       </c>
       <c r="G116" s="1">
-        <v>26.527671704885801</v>
+        <v>6.3795465141092702</v>
       </c>
       <c r="H116" s="1">
-        <v>24.363711729091602</v>
+        <v>7.6183949684087304</v>
       </c>
       <c r="I116" s="1">
-        <v>27.063988099704499</v>
+        <v>6.4545155416051996</v>
       </c>
       <c r="J116" s="1">
-        <v>29.7704303351127</v>
+        <v>6.1820217373584399</v>
       </c>
       <c r="K116" s="1">
-        <v>25.533890609355101</v>
+        <v>7.65869679061956</v>
       </c>
       <c r="L116" s="1">
-        <v>31.318786040433601</v>
+        <v>6.47900081392042</v>
       </c>
       <c r="M116" s="1">
-        <v>26.244838123950501</v>
+        <v>7.2144741382111697</v>
       </c>
       <c r="N116" s="1">
-        <v>25.921758172711598</v>
+        <v>9.3374112745446407</v>
       </c>
       <c r="O116" s="1">
-        <v>15.9403065139988</v>
+        <v>7.6334683836853001</v>
       </c>
       <c r="P116" s="1">
-        <v>30.776977142213301</v>
+        <v>7.8594150963724401</v>
       </c>
       <c r="Q116" s="1">
-        <v>27.267374384499199</v>
+        <v>8.1689448369013107</v>
       </c>
       <c r="R116" s="1">
-        <v>21.303588158378201</v>
+        <v>8.3591900327988995</v>
       </c>
       <c r="S116" s="1">
-        <v>30.812711655393599</v>
+        <v>7.7498132247527298</v>
       </c>
       <c r="T116" s="1">
-        <v>17.3180034956379</v>
+        <v>7.0485461545720698</v>
       </c>
       <c r="U116" s="1">
-        <v>24.673677546351399</v>
+        <v>8.4990793216387601</v>
       </c>
       <c r="V116" s="1">
-        <v>18.390131169982599</v>
+        <v>7.3485566333184904</v>
       </c>
       <c r="W116" s="1">
-        <v>40.579196856397203</v>
+        <v>9.2353528117761794</v>
       </c>
       <c r="X116" s="1">
-        <v>20.888253408107399</v>
+        <v>7.4296634062297997</v>
       </c>
       <c r="Y116" s="1">
-        <v>32.061724759903399</v>
+        <v>5.98403677346389</v>
       </c>
       <c r="Z116" s="1">
-        <v>26.3045537127114</v>
+        <v>8.1374951093930505</v>
       </c>
       <c r="AA116" s="1">
-        <v>24.372257178706999</v>
+        <v>6.5865253366433496</v>
       </c>
       <c r="AB116" s="1">
-        <v>26.8810915542484</v>
+        <v>6.8792696650098701</v>
       </c>
       <c r="AC116" s="1">
-        <v>20.619071568000699</v>
+        <v>7.5719232103006302</v>
       </c>
       <c r="AD116" s="1">
-        <v>33.522251914278101</v>
+        <v>6.5328007067109697</v>
       </c>
       <c r="AE116" s="1">
-        <v>20.4832454668312</v>
+        <v>8.1997589059906399</v>
       </c>
       <c r="AF116" s="1">
-        <v>26.4336266693171</v>
+        <v>7.9385508069658801</v>
       </c>
       <c r="AG116" s="1">
-        <v>31.304684555454202</v>
+        <v>7.2187220710771403</v>
       </c>
       <c r="AJ116" s="2">
         <f t="shared" si="6"/>
-        <v>26.216099478426219</v>
+        <v>7.4185591730168978</v>
       </c>
       <c r="AK116" s="2">
         <f t="shared" si="7"/>
-        <v>5.3095648102768571</v>
+        <v>0.850775580502942</v>
       </c>
     </row>
     <row r="117" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D117" s="1">
-        <v>49.700052624772198</v>
+        <v>12.20483542575</v>
       </c>
       <c r="E117" s="1">
-        <v>65.966131442074001</v>
+        <v>15.407170989685699</v>
       </c>
       <c r="F117" s="1">
-        <v>57.923957239078298</v>
+        <v>10.186555030169201</v>
       </c>
       <c r="G117" s="1">
-        <v>53.923018241341097</v>
+        <v>13.8274064358222</v>
       </c>
       <c r="H117" s="1">
-        <v>73.454815804887701</v>
+        <v>13.7346514535141</v>
       </c>
       <c r="I117" s="1">
-        <v>60.767056131971103</v>
+        <v>14.114580296239</v>
       </c>
       <c r="J117" s="1">
-        <v>62.313103380141399</v>
+        <v>13.143194327902</v>
       </c>
       <c r="K117" s="1">
-        <v>64.410298668771006</v>
+        <v>31.929387600379101</v>
       </c>
       <c r="L117" s="1">
-        <v>38.466276032062503</v>
+        <v>12.553545865416501</v>
       </c>
       <c r="M117" s="1">
-        <v>49.924701626514398</v>
+        <v>12.913150837387001</v>
       </c>
       <c r="N117" s="1">
-        <v>47.2097874865579</v>
+        <v>16.155337299491201</v>
       </c>
       <c r="O117" s="1">
-        <v>68.348739712175202</v>
+        <v>16.009300620093601</v>
       </c>
       <c r="P117" s="1">
-        <v>65.981794378655295</v>
+        <v>13.2673395044957</v>
       </c>
       <c r="Q117" s="1">
-        <v>69.567254171719995</v>
+        <v>14.832390580980199</v>
       </c>
       <c r="R117" s="1">
-        <v>64.843917816295402</v>
+        <v>11.505399681894801</v>
       </c>
       <c r="S117" s="1">
-        <v>63.748953792835998</v>
+        <v>23.533614613830402</v>
       </c>
       <c r="T117" s="1">
-        <v>81.635859199399306</v>
+        <v>15.4662275719483</v>
       </c>
       <c r="U117" s="1">
-        <v>45.325915560677103</v>
+        <v>11.866019504654799</v>
       </c>
       <c r="V117" s="1">
-        <v>56.453013315604601</v>
+        <v>12.1169992553365</v>
       </c>
       <c r="W117" s="1">
-        <v>59.167640704416399</v>
+        <v>13.383428309261699</v>
       </c>
       <c r="X117" s="1">
-        <v>73.514595773318007</v>
+        <v>13.4853823033024</v>
       </c>
       <c r="Y117" s="1">
-        <v>70.115676645267598</v>
+        <v>12.808190183730799</v>
       </c>
       <c r="Z117" s="1">
-        <v>85.559405122913205</v>
+        <v>11.5865938348302</v>
       </c>
       <c r="AA117" s="1">
-        <v>52.360804800564999</v>
+        <v>14.237883356368</v>
       </c>
       <c r="AB117" s="1">
-        <v>49.9849575262716</v>
+        <v>16.908993552859599</v>
       </c>
       <c r="AC117" s="1">
-        <v>71.061508841395806</v>
+        <v>21.527973234149101</v>
       </c>
       <c r="AD117" s="1">
-        <v>58.7873273098552</v>
+        <v>19.720069872426301</v>
       </c>
       <c r="AE117" s="1">
-        <v>40.563928780544998</v>
+        <v>13.221036848977</v>
       </c>
       <c r="AF117" s="1">
-        <v>44.578592659411299</v>
+        <v>11.7827802883792</v>
       </c>
       <c r="AG117" s="1">
-        <v>66.865923809316598</v>
+        <v>23.800331212650701</v>
       </c>
       <c r="AJ117" s="2">
         <f t="shared" si="6"/>
-        <v>60.417500286627003</v>
+        <v>15.240992329730846</v>
       </c>
       <c r="AK117" s="2">
         <f t="shared" si="7"/>
-        <v>11.637672249236589</v>
+        <v>4.6378110386312423</v>
       </c>
     </row>
     <row r="118" spans="4:37" x14ac:dyDescent="0.25">
       <c r="D118" s="1">
-        <v>130.76808891651601</v>
+        <v>34.108333644913898</v>
       </c>
       <c r="E118" s="1">
-        <v>129.08344703000901</v>
+        <v>33.070825289078698</v>
       </c>
       <c r="F118" s="1">
-        <v>160.017500358788</v>
+        <v>31.450875143457601</v>
       </c>
       <c r="G118" s="1">
-        <v>113.68616329797101</v>
+        <v>36.765218163490097</v>
       </c>
       <c r="H118" s="1">
-        <v>168.210600316989</v>
+        <v>51.364491909355301</v>
       </c>
       <c r="I118" s="1">
-        <v>133.884076982686</v>
+        <v>36.534066576680303</v>
       </c>
       <c r="J118" s="1">
-        <v>190.304615332499</v>
+        <v>48.238123807153002</v>
       </c>
       <c r="K118" s="1">
-        <v>164.63299662831699</v>
+        <v>35.707518165263203</v>
       </c>
       <c r="L118" s="1">
-        <v>189.50568294599401</v>
+        <v>35.234458828742298</v>
       </c>
       <c r="M118" s="1">
-        <v>111.116892407237</v>
+        <v>48.397786078103202</v>
       </c>
       <c r="N118" s="1">
-        <v>116.14104995909901</v>
+        <v>39.927049120764998</v>
       </c>
       <c r="O118" s="1">
-        <v>213.67793053501299</v>
+        <v>39.526953576876799</v>
       </c>
       <c r="P118" s="1">
-        <v>141.168041335466</v>
+        <v>30.065674471656699</v>
       </c>
       <c r="Q118" s="1">
-        <v>155.95860145376699</v>
+        <v>47.787421503613402</v>
       </c>
       <c r="R118" s="1">
-        <v>176.08350045526799</v>
+        <v>42.636203394549</v>
       </c>
       <c r="S118" s="1">
-        <v>218.965965834347</v>
+        <v>44.005167399232398</v>
       </c>
       <c r="T118" s="1">
-        <v>177.63938159651701</v>
+        <v>42.656127077673801</v>
       </c>
       <c r="U118" s="1">
-        <v>130.39338779923901</v>
+        <v>35.400967213144298</v>
       </c>
       <c r="V118" s="1">
-        <v>218.624054169678</v>
+        <v>32.276372247248197</v>
       </c>
       <c r="W118" s="1">
-        <v>131.56762430720801</v>
+        <v>44.436165516871803</v>
       </c>
       <c r="X118" s="1">
-        <v>175.18119704152599</v>
+        <v>41.385977772527603</v>
       </c>
       <c r="Y118" s="1">
-        <v>124.94423692578999</v>
+        <v>42.923057736037201</v>
       </c>
       <c r="Z118" s="1">
-        <v>190.41593122482101</v>
+        <v>28.616999950465999</v>
       </c>
       <c r="AA118" s="1">
-        <v>131.484421790493</v>
+        <v>38.806613110791098</v>
       </c>
       <c r="AB118" s="1">
-        <v>146.58066349425499</v>
+        <v>37.085689036677898</v>
       </c>
       <c r="AC118" s="1">
-        <v>244.42290437379</v>
+        <v>51.427780929557798</v>
       </c>
       <c r="AD118" s="1">
-        <v>217.13454364037699</v>
+        <v>50.5089955746882</v>
       </c>
       <c r="AE118" s="1">
-        <v>156.48586464532099</v>
+        <v>38.985740971473</v>
       </c>
       <c r="AF118" s="1">
-        <v>260.60971133248</v>
+        <v>32.843078413388703</v>
       </c>
       <c r="AG118" s="1">
-        <v>166.199195013847</v>
+        <v>33.229067322599697</v>
       </c>
       <c r="AJ118" s="2">
         <f t="shared" si="6"/>
-        <v>166.1629423715103</v>
+        <v>39.513426664869208</v>
       </c>
       <c r="AK118" s="2">
         <f t="shared" si="7"/>
-        <v>39.849774174132939</v>
+        <v>6.5890261130372307</v>
       </c>
     </row>
     <row r="119" spans="4:37" x14ac:dyDescent="0.25">
